--- a/PARSER_ETL/movimentação_produtos/tratados/xpt_tbl_movint_produto_jul-2021_tratado.xlsx
+++ b/PARSER_ETL/movimentação_produtos/tratados/xpt_tbl_movint_produto_jul-2021_tratado.xlsx
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>8720643951</v>
+        <v>1525123012</v>
       </c>
     </row>
     <row r="3">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1994047040</v>
+        <v>9418771268</v>
       </c>
     </row>
     <row r="4">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>4279824777</v>
+        <v>2381541712</v>
       </c>
     </row>
     <row r="5">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>7278631639</v>
+        <v>659208494</v>
       </c>
     </row>
     <row r="6">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>440056602</v>
+        <v>586806010</v>
       </c>
     </row>
     <row r="7">
@@ -783,7 +783,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>7430839204</v>
+        <v>3023915066</v>
       </c>
     </row>
     <row r="8">
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3736930327</v>
+        <v>7553553284</v>
       </c>
     </row>
     <row r="9">
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>7037786263</v>
+        <v>7763779044</v>
       </c>
     </row>
     <row r="10">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2426507695</v>
+        <v>2364478706</v>
       </c>
     </row>
     <row r="11">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>9512592268</v>
+        <v>1961669193</v>
       </c>
     </row>
     <row r="12">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4581361861</v>
+        <v>3505224695</v>
       </c>
     </row>
     <row r="13">
@@ -1063,7 +1063,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1946897231</v>
+        <v>6241581302</v>
       </c>
     </row>
     <row r="14">
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>783521621</v>
+        <v>8628865947</v>
       </c>
     </row>
     <row r="15">
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3189410019</v>
+        <v>5893346431</v>
       </c>
     </row>
     <row r="16">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>8592012592</v>
+        <v>5983692319</v>
       </c>
     </row>
     <row r="17">
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2660939655</v>
+        <v>4176200771</v>
       </c>
     </row>
     <row r="18">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>5025669158</v>
+        <v>7509715030</v>
       </c>
     </row>
     <row r="19">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>9359332108</v>
+        <v>5609018857</v>
       </c>
     </row>
     <row r="20">
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>7925651649</v>
+        <v>8120341328</v>
       </c>
     </row>
     <row r="21">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>8758983563</v>
+        <v>7093330013</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>7863802043</v>
+        <v>5662537724</v>
       </c>
     </row>
     <row r="23">
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>7392687911</v>
+        <v>8265893110</v>
       </c>
     </row>
     <row r="24">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>7010618077</v>
+        <v>9645745332</v>
       </c>
     </row>
     <row r="25">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>7741870105</v>
+        <v>2144989579</v>
       </c>
     </row>
     <row r="26">
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>2477732908</v>
+        <v>3299650791</v>
       </c>
     </row>
     <row r="27">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>5743453314</v>
+        <v>2371837010</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1048717080</v>
+        <v>3541151019</v>
       </c>
     </row>
     <row r="29">
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3428320336</v>
+        <v>2878232980</v>
       </c>
     </row>
     <row r="30">
@@ -1865,7 +1865,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>2424529746</v>
+        <v>8889363464</v>
       </c>
     </row>
     <row r="31">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>2453988060</v>
+        <v>9995382226</v>
       </c>
     </row>
     <row r="32">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>8681695889</v>
+        <v>2926400294</v>
       </c>
     </row>
     <row r="33">
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>5717854921</v>
+        <v>8411980733</v>
       </c>
     </row>
     <row r="34">
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>8689863516</v>
+        <v>8149025569</v>
       </c>
     </row>
     <row r="35">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>2831374382</v>
+        <v>583371420</v>
       </c>
     </row>
     <row r="36">
@@ -2143,7 +2143,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>7954728747</v>
+        <v>2299833897</v>
       </c>
     </row>
     <row r="37">
@@ -2189,7 +2189,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>4398992887</v>
+        <v>8157369232</v>
       </c>
     </row>
     <row r="38">
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1951254636</v>
+        <v>4525144095</v>
       </c>
     </row>
     <row r="39">
@@ -2281,7 +2281,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>6687307154</v>
+        <v>1270536087</v>
       </c>
     </row>
     <row r="40">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>5071455170</v>
+        <v>6605170681</v>
       </c>
     </row>
     <row r="41">
@@ -2375,7 +2375,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>8582295989</v>
+        <v>4489298628</v>
       </c>
     </row>
     <row r="42">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>9557065806</v>
+        <v>1286586240</v>
       </c>
     </row>
     <row r="43">
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>9632888744</v>
+        <v>3452293276</v>
       </c>
     </row>
     <row r="44">
@@ -2513,7 +2513,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>6227887365</v>
+        <v>7025243084</v>
       </c>
     </row>
     <row r="45">
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>7961114298</v>
+        <v>4865279826</v>
       </c>
     </row>
     <row r="46">
@@ -2605,7 +2605,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4257935096</v>
+        <v>2522513220</v>
       </c>
     </row>
     <row r="47">
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4779220714</v>
+        <v>995216655</v>
       </c>
     </row>
     <row r="48">
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>326515736</v>
+        <v>1872711721</v>
       </c>
     </row>
     <row r="49">
@@ -2743,7 +2743,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>6421029179</v>
+        <v>7865350334</v>
       </c>
     </row>
     <row r="50">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>9083206900</v>
+        <v>8914403671</v>
       </c>
     </row>
     <row r="51">
@@ -2839,7 +2839,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3522160840</v>
+        <v>9138230489</v>
       </c>
     </row>
     <row r="52">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>7924054977</v>
+        <v>7114610865</v>
       </c>
     </row>
     <row r="53">
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3562832974</v>
+        <v>2948035543</v>
       </c>
     </row>
     <row r="54">
@@ -2983,7 +2983,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4286574444</v>
+        <v>1782342908</v>
       </c>
     </row>
     <row r="55">
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4291385923</v>
+        <v>2402781902</v>
       </c>
     </row>
     <row r="56">
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>6957377435</v>
+        <v>4107781462</v>
       </c>
     </row>
     <row r="57">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>8085398564</v>
+        <v>8877820428</v>
       </c>
     </row>
     <row r="58">
@@ -3175,7 +3175,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1812298650</v>
+        <v>6647228453</v>
       </c>
     </row>
     <row r="59">
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>9857074263</v>
+        <v>9985300777</v>
       </c>
     </row>
     <row r="60">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1945592641</v>
+        <v>7517371592</v>
       </c>
     </row>
     <row r="61">
@@ -3319,7 +3319,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>4197598999</v>
+        <v>5165838469</v>
       </c>
     </row>
     <row r="62">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>6715306333</v>
+        <v>7451627644</v>
       </c>
     </row>
     <row r="63">
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>749670742</v>
+        <v>8991326529</v>
       </c>
     </row>
     <row r="64">
@@ -3463,7 +3463,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>2636123069</v>
+        <v>4236513852</v>
       </c>
     </row>
     <row r="65">
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>5920994757</v>
+        <v>2771692782</v>
       </c>
     </row>
     <row r="66">
@@ -3555,7 +3555,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4416719901</v>
+        <v>16569287</v>
       </c>
     </row>
     <row r="67">
@@ -3603,7 +3603,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1254387451</v>
+        <v>6749394781</v>
       </c>
     </row>
     <row r="68">
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>471157712</v>
+        <v>6068119366</v>
       </c>
     </row>
     <row r="69">
@@ -3699,7 +3699,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>8664753724</v>
+        <v>7420048580</v>
       </c>
     </row>
     <row r="70">
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>6563547328</v>
+        <v>2850943875</v>
       </c>
     </row>
     <row r="71">
@@ -3795,7 +3795,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>8304393376</v>
+        <v>6905810168</v>
       </c>
     </row>
     <row r="72">
@@ -3843,7 +3843,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3210729656</v>
+        <v>9136084963</v>
       </c>
     </row>
     <row r="73">
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>9896309469</v>
+        <v>5006794704</v>
       </c>
     </row>
     <row r="74">
@@ -3939,7 +3939,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>669807398</v>
+        <v>4369847124</v>
       </c>
     </row>
     <row r="75">
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>6805100457</v>
+        <v>152804241</v>
       </c>
     </row>
     <row r="76">
@@ -4031,7 +4031,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>8218226011</v>
+        <v>7655041936</v>
       </c>
     </row>
     <row r="77">
@@ -4079,7 +4079,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4812636754</v>
+        <v>4546387556</v>
       </c>
     </row>
     <row r="78">
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>9808574596</v>
+        <v>1695659642</v>
       </c>
     </row>
     <row r="79">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>5744059658</v>
+        <v>4178412578</v>
       </c>
     </row>
     <row r="80">
@@ -4215,7 +4215,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>8288964259</v>
+        <v>2845889863</v>
       </c>
     </row>
     <row r="81">
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>4015265529</v>
+        <v>1042587346</v>
       </c>
     </row>
     <row r="82">
@@ -4311,7 +4311,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>8501013709</v>
+        <v>3800400101</v>
       </c>
     </row>
     <row r="83">
@@ -4359,7 +4359,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>9061117910</v>
+        <v>6879301772</v>
       </c>
     </row>
     <row r="84">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>7352899774</v>
+        <v>6219124358</v>
       </c>
     </row>
     <row r="85">
@@ -4455,7 +4455,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>6017724359</v>
+        <v>6646306335</v>
       </c>
     </row>
     <row r="86">
@@ -4503,7 +4503,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>9906729788</v>
+        <v>8249393125</v>
       </c>
     </row>
     <row r="87">
@@ -4551,7 +4551,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3199408339</v>
+        <v>7299314230</v>
       </c>
     </row>
     <row r="88">
@@ -4599,7 +4599,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>4314306477</v>
+        <v>4702519891</v>
       </c>
     </row>
     <row r="89">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>8745847034</v>
+        <v>1649505299</v>
       </c>
     </row>
     <row r="90">
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>155462715</v>
+        <v>161238930</v>
       </c>
     </row>
     <row r="91">
@@ -4743,7 +4743,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>8828507535</v>
+        <v>161804713</v>
       </c>
     </row>
     <row r="92">
@@ -4791,7 +4791,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>387358494</v>
+        <v>81369328</v>
       </c>
     </row>
     <row r="93">
@@ -4839,7 +4839,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3943068044</v>
+        <v>1477785143</v>
       </c>
     </row>
     <row r="94">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>6656442215</v>
+        <v>8476874769</v>
       </c>
     </row>
     <row r="95">
@@ -4935,7 +4935,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>2368565890</v>
+        <v>2402898720</v>
       </c>
     </row>
     <row r="96">
@@ -4983,7 +4983,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>5038342628</v>
+        <v>1730022010</v>
       </c>
     </row>
     <row r="97">
@@ -5031,7 +5031,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>4411213655</v>
+        <v>9275859976</v>
       </c>
     </row>
     <row r="98">
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>146506902</v>
+        <v>5612360193</v>
       </c>
     </row>
     <row r="99">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>8870450499</v>
+        <v>51184251</v>
       </c>
     </row>
     <row r="100">
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3783327346</v>
+        <v>1407849333</v>
       </c>
     </row>
     <row r="101">
@@ -5225,7 +5225,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>6720138960</v>
+        <v>4892123015</v>
       </c>
     </row>
     <row r="102">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>9195843877</v>
+        <v>8817806416</v>
       </c>
     </row>
     <row r="103">
@@ -5317,7 +5317,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3679753033</v>
+        <v>1870073907</v>
       </c>
     </row>
     <row r="104">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>5843582910</v>
+        <v>6243551727</v>
       </c>
     </row>
     <row r="105">
@@ -5413,7 +5413,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>9494850244</v>
+        <v>1101716693</v>
       </c>
     </row>
     <row r="106">
@@ -5459,7 +5459,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>9005390311</v>
+        <v>1171660040</v>
       </c>
     </row>
     <row r="107">
@@ -5505,7 +5505,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3941939319</v>
+        <v>1879372930</v>
       </c>
     </row>
     <row r="108">
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>5395948767</v>
+        <v>8028783097</v>
       </c>
     </row>
     <row r="109">
@@ -5597,7 +5597,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>9439059040</v>
+        <v>1444026112</v>
       </c>
     </row>
     <row r="110">
@@ -5643,7 +5643,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>5162897918</v>
+        <v>2747193499</v>
       </c>
     </row>
     <row r="111">
@@ -5689,7 +5689,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>280652530</v>
+        <v>2413629627</v>
       </c>
     </row>
     <row r="112">
@@ -5735,7 +5735,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>1340717743</v>
+        <v>196620121</v>
       </c>
     </row>
     <row r="113">
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>6789641251</v>
+        <v>6932801315</v>
       </c>
     </row>
     <row r="114">
@@ -5829,7 +5829,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>1736620861</v>
+        <v>1844679657</v>
       </c>
     </row>
     <row r="115">
@@ -5875,7 +5875,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>5633268222</v>
+        <v>120594848</v>
       </c>
     </row>
     <row r="116">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>8071071133</v>
+        <v>9087162452</v>
       </c>
     </row>
     <row r="117">
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>260286708</v>
+        <v>7973863478</v>
       </c>
     </row>
     <row r="118">
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>5272588589</v>
+        <v>2804281738</v>
       </c>
     </row>
     <row r="119">
@@ -6059,7 +6059,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>5571546712</v>
+        <v>345667877</v>
       </c>
     </row>
     <row r="120">
@@ -6105,7 +6105,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>8495216169</v>
+        <v>8337886368</v>
       </c>
     </row>
     <row r="121">
@@ -6151,7 +6151,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>6427045319</v>
+        <v>6691412934</v>
       </c>
     </row>
     <row r="122">
@@ -6197,7 +6197,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>5060833509</v>
+        <v>2461536964</v>
       </c>
     </row>
     <row r="123">
@@ -6245,7 +6245,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>5400515460</v>
+        <v>5815649236</v>
       </c>
     </row>
     <row r="124">
@@ -6291,7 +6291,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>9915910053</v>
+        <v>5138092775</v>
       </c>
     </row>
     <row r="125">
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>840653065</v>
+        <v>8160402749</v>
       </c>
     </row>
     <row r="126">
@@ -6383,7 +6383,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>6526040806</v>
+        <v>5883019108</v>
       </c>
     </row>
     <row r="127">
@@ -6429,7 +6429,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>5596438270</v>
+        <v>7339728373</v>
       </c>
     </row>
     <row r="128">
@@ -6477,7 +6477,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>5565935548</v>
+        <v>6961055811</v>
       </c>
     </row>
     <row r="129">
@@ -6523,7 +6523,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>2936436402</v>
+        <v>9763742907</v>
       </c>
     </row>
     <row r="130">
@@ -6569,7 +6569,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>5225234063</v>
+        <v>5519910959</v>
       </c>
     </row>
     <row r="131">
@@ -6617,7 +6617,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>2851306373</v>
+        <v>1308927281</v>
       </c>
     </row>
     <row r="132">
@@ -6663,7 +6663,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>5509238487</v>
+        <v>8770464544</v>
       </c>
     </row>
     <row r="133">
@@ -6711,7 +6711,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>9780345146</v>
+        <v>8406685258</v>
       </c>
     </row>
     <row r="134">
@@ -6757,7 +6757,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>4745141890</v>
+        <v>3972230471</v>
       </c>
     </row>
     <row r="135">
@@ -6803,7 +6803,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>5331837798</v>
+        <v>7201132533</v>
       </c>
     </row>
     <row r="136">
@@ -6849,7 +6849,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>5413694899</v>
+        <v>6926872771</v>
       </c>
     </row>
     <row r="137">
@@ -6897,7 +6897,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>9656713751</v>
+        <v>8013329655</v>
       </c>
     </row>
     <row r="138">
@@ -6943,7 +6943,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>763339866</v>
+        <v>506856739</v>
       </c>
     </row>
     <row r="139">
@@ -6989,7 +6989,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>4241621324</v>
+        <v>1341049303</v>
       </c>
     </row>
     <row r="140">
@@ -7035,7 +7035,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>7187322669</v>
+        <v>1817759900</v>
       </c>
     </row>
     <row r="141">
@@ -7083,7 +7083,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>9558275917</v>
+        <v>8274999548</v>
       </c>
     </row>
     <row r="142">
@@ -7129,7 +7129,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>6868696138</v>
+        <v>9620079385</v>
       </c>
     </row>
     <row r="143">
@@ -7175,7 +7175,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>4157181832</v>
+        <v>3378296598</v>
       </c>
     </row>
     <row r="144">
@@ -7223,7 +7223,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>9392989880</v>
+        <v>4712436157</v>
       </c>
     </row>
     <row r="145">
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>1175543737</v>
+        <v>2456725681</v>
       </c>
     </row>
     <row r="146">
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3359747184</v>
+        <v>8680183437</v>
       </c>
     </row>
     <row r="147">
@@ -7365,7 +7365,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>6969595151</v>
+        <v>3858939915</v>
       </c>
     </row>
     <row r="148">
@@ -7411,7 +7411,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>1044034580</v>
+        <v>1830535646</v>
       </c>
     </row>
     <row r="149">
@@ -7455,7 +7455,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>1337582851</v>
+        <v>8411562786</v>
       </c>
     </row>
     <row r="150">
@@ -7503,7 +7503,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>4207176549</v>
+        <v>6759631882</v>
       </c>
     </row>
     <row r="151">
@@ -7547,7 +7547,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>5497911557</v>
+        <v>4500245540</v>
       </c>
     </row>
     <row r="152">
@@ -7591,7 +7591,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>8155778756</v>
+        <v>4159709351</v>
       </c>
     </row>
     <row r="153">
@@ -7639,7 +7639,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>6019193156</v>
+        <v>1289728908</v>
       </c>
     </row>
     <row r="154">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>6113300921</v>
+        <v>9175393902</v>
       </c>
     </row>
     <row r="155">
@@ -7731,7 +7731,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>6252709754</v>
+        <v>3237711441</v>
       </c>
     </row>
     <row r="156">
@@ -7781,7 +7781,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>7254990979</v>
+        <v>5553038426</v>
       </c>
     </row>
     <row r="157">
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>4928846594</v>
+        <v>3511228471</v>
       </c>
     </row>
     <row r="158">
@@ -7873,7 +7873,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>9809051764</v>
+        <v>250187029</v>
       </c>
     </row>
     <row r="159">
@@ -7919,7 +7919,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>5305762528</v>
+        <v>7075957769</v>
       </c>
     </row>
     <row r="160">
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>8251290675</v>
+        <v>1350549044</v>
       </c>
     </row>
     <row r="161">
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>7356817598</v>
+        <v>578438594</v>
       </c>
     </row>
     <row r="162">
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3808907793</v>
+        <v>9531242867</v>
       </c>
     </row>
     <row r="163">
@@ -8103,7 +8103,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>4654977123</v>
+        <v>4052025148</v>
       </c>
     </row>
     <row r="164">
@@ -8149,7 +8149,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>6429498703</v>
+        <v>7444352431</v>
       </c>
     </row>
     <row r="165">
@@ -8195,7 +8195,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>7388273995</v>
+        <v>4833546590</v>
       </c>
     </row>
     <row r="166">
@@ -8241,7 +8241,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>343108761</v>
+        <v>2428938641</v>
       </c>
     </row>
     <row r="167">
@@ -8287,7 +8287,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>1364026262</v>
+        <v>1157098783</v>
       </c>
     </row>
     <row r="168">
@@ -8333,7 +8333,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>101348167</v>
+        <v>2606557099</v>
       </c>
     </row>
     <row r="169">
@@ -8381,7 +8381,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>5902324043</v>
+        <v>1217809610</v>
       </c>
     </row>
     <row r="170">
@@ -8429,7 +8429,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>5018070682</v>
+        <v>5492334488</v>
       </c>
     </row>
     <row r="171">
@@ -8475,7 +8475,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>8761875743</v>
+        <v>6708234369</v>
       </c>
     </row>
     <row r="172">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>9989298542</v>
+        <v>7697392345</v>
       </c>
     </row>
     <row r="173">
@@ -8569,7 +8569,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>1212573034</v>
+        <v>5196311844</v>
       </c>
     </row>
     <row r="174">
@@ -8615,7 +8615,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3777038008</v>
+        <v>8724487332</v>
       </c>
     </row>
     <row r="175">
@@ -8661,7 +8661,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>9795699945</v>
+        <v>47435514</v>
       </c>
     </row>
     <row r="176">
@@ -8707,7 +8707,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>8588380311</v>
+        <v>930342235</v>
       </c>
     </row>
     <row r="177">
@@ -8753,7 +8753,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>368184193</v>
+        <v>4448755694</v>
       </c>
     </row>
     <row r="178">
@@ -8799,7 +8799,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>6829170482</v>
+        <v>7243806456</v>
       </c>
     </row>
     <row r="179">
@@ -8845,7 +8845,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>7273708945</v>
+        <v>318987298</v>
       </c>
     </row>
     <row r="180">
@@ -8891,7 +8891,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>6384969664</v>
+        <v>1310856654</v>
       </c>
     </row>
     <row r="181">
@@ -8937,7 +8937,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>7622859669</v>
+        <v>1698723856</v>
       </c>
     </row>
     <row r="182">
@@ -8983,7 +8983,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>692065394</v>
+        <v>6484556931</v>
       </c>
     </row>
     <row r="183">
@@ -9029,7 +9029,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>792441731</v>
+        <v>9793389063</v>
       </c>
     </row>
     <row r="184">
@@ -9075,7 +9075,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>9498034904</v>
+        <v>3305330290</v>
       </c>
     </row>
     <row r="185">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>4939498310</v>
+        <v>5922797488</v>
       </c>
     </row>
     <row r="186">
@@ -9167,7 +9167,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>6017258391</v>
+        <v>7497076983</v>
       </c>
     </row>
     <row r="187">
@@ -9213,7 +9213,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>2233742487</v>
+        <v>8585891714</v>
       </c>
     </row>
     <row r="188">
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>6321789959</v>
+        <v>3793677357</v>
       </c>
     </row>
     <row r="189">
@@ -9309,7 +9309,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>9421481784</v>
+        <v>8090033798</v>
       </c>
     </row>
     <row r="190">
@@ -9355,7 +9355,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3811649572</v>
+        <v>2256542552</v>
       </c>
     </row>
     <row r="191">
@@ -9403,7 +9403,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>572135144</v>
+        <v>5749409771</v>
       </c>
     </row>
     <row r="192">
@@ -9449,7 +9449,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>4890821413</v>
+        <v>8952869840</v>
       </c>
     </row>
     <row r="193">
@@ -9495,7 +9495,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>9456401810</v>
+        <v>6924339889</v>
       </c>
     </row>
     <row r="194">
@@ -9541,7 +9541,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>8747025727</v>
+        <v>6729109767</v>
       </c>
     </row>
     <row r="195">
@@ -9587,7 +9587,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>9278191392</v>
+        <v>4070930224</v>
       </c>
     </row>
     <row r="196">
@@ -9633,7 +9633,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>597674979</v>
+        <v>8842931413</v>
       </c>
     </row>
     <row r="197">
@@ -9679,7 +9679,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>6769078972</v>
+        <v>9048026805</v>
       </c>
     </row>
     <row r="198">
@@ -9725,7 +9725,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>860231937</v>
+        <v>5617372574</v>
       </c>
     </row>
     <row r="199">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3766486217</v>
+        <v>8807092149</v>
       </c>
     </row>
     <row r="200">
@@ -9817,7 +9817,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>581952194</v>
+        <v>5315805423</v>
       </c>
     </row>
     <row r="201">
@@ -9863,7 +9863,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>6511684617</v>
+        <v>4680659057</v>
       </c>
     </row>
     <row r="202">
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>4890590766</v>
+        <v>7440052136</v>
       </c>
     </row>
     <row r="203">
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>8728809182</v>
+        <v>8826300633</v>
       </c>
     </row>
     <row r="204">
@@ -10001,7 +10001,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>1646436100</v>
+        <v>5252828799</v>
       </c>
     </row>
     <row r="205">
@@ -10047,7 +10047,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>8737245008</v>
+        <v>6919740416</v>
       </c>
     </row>
     <row r="206">
@@ -10093,7 +10093,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>7988737265</v>
+        <v>5226105363</v>
       </c>
     </row>
     <row r="207">
@@ -10139,7 +10139,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>8663798135</v>
+        <v>6012071635</v>
       </c>
     </row>
     <row r="208">
@@ -10185,7 +10185,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>4780135054</v>
+        <v>6576791359</v>
       </c>
     </row>
     <row r="209">
@@ -10233,7 +10233,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>660460716</v>
+        <v>4336710297</v>
       </c>
     </row>
     <row r="210">
@@ -10279,7 +10279,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>9584510686</v>
+        <v>8231323872</v>
       </c>
     </row>
     <row r="211">
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>5244792704</v>
+        <v>7375566662</v>
       </c>
     </row>
     <row r="212">
@@ -10373,7 +10373,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>2610208243</v>
+        <v>6121427735</v>
       </c>
     </row>
     <row r="213">
@@ -10419,7 +10419,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>3296043873</v>
+        <v>2523920681</v>
       </c>
     </row>
     <row r="214">
@@ -10465,7 +10465,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>1003808529</v>
+        <v>8563347953</v>
       </c>
     </row>
     <row r="215">
@@ -10511,7 +10511,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>6962143352</v>
+        <v>8213401827</v>
       </c>
     </row>
     <row r="216">
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>2186290348</v>
+        <v>1779413574</v>
       </c>
     </row>
     <row r="217">
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>5378937890</v>
+        <v>1003782599</v>
       </c>
     </row>
     <row r="218">
@@ -10649,7 +10649,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>6212458000</v>
+        <v>2494795402</v>
       </c>
     </row>
     <row r="219">
@@ -10695,7 +10695,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>8847418399</v>
+        <v>2031213262</v>
       </c>
     </row>
     <row r="220">
@@ -10741,7 +10741,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>9036181357</v>
+        <v>5458310801</v>
       </c>
     </row>
     <row r="221">
@@ -10787,7 +10787,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>3318645394</v>
+        <v>993120128</v>
       </c>
     </row>
     <row r="222">
@@ -10835,7 +10835,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>6798655654</v>
+        <v>5549423492</v>
       </c>
     </row>
     <row r="223">
@@ -10881,7 +10881,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>9053062170</v>
+        <v>4083061788</v>
       </c>
     </row>
     <row r="224">
@@ -10929,7 +10929,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>4118426381</v>
+        <v>1911105638</v>
       </c>
     </row>
     <row r="225">
@@ -10977,7 +10977,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>140211431</v>
+        <v>3430926997</v>
       </c>
     </row>
     <row r="226">
@@ -11023,7 +11023,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>3991269912</v>
+        <v>1614386211</v>
       </c>
     </row>
     <row r="227">
@@ -11073,7 +11073,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>6319484411</v>
+        <v>6735990393</v>
       </c>
     </row>
     <row r="228">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>7908518263</v>
+        <v>179914397</v>
       </c>
     </row>
     <row r="229">
@@ -11169,7 +11169,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>5768838965</v>
+        <v>2100200092</v>
       </c>
     </row>
     <row r="230">
@@ -11213,7 +11213,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>5927572054</v>
+        <v>9639815358</v>
       </c>
     </row>
     <row r="231">
@@ -11261,7 +11261,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>5713088039</v>
+        <v>901475456</v>
       </c>
     </row>
     <row r="232">
@@ -11309,7 +11309,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>1604205129</v>
+        <v>8115117141</v>
       </c>
     </row>
     <row r="233">
@@ -11357,7 +11357,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1800806375</v>
+        <v>8552845672</v>
       </c>
     </row>
     <row r="234">
@@ -11405,7 +11405,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>9347638836</v>
+        <v>4646822963</v>
       </c>
     </row>
     <row r="235">
@@ -11453,7 +11453,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>1960384891</v>
+        <v>2813471968</v>
       </c>
     </row>
     <row r="236">
@@ -11501,7 +11501,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>3419739017</v>
+        <v>9255195860</v>
       </c>
     </row>
     <row r="237">
@@ -11549,7 +11549,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>9779488087</v>
+        <v>391877788</v>
       </c>
     </row>
     <row r="238">
@@ -11599,7 +11599,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>6480768737</v>
+        <v>2026265968</v>
       </c>
     </row>
     <row r="239">
@@ -11647,7 +11647,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>41539801</v>
+        <v>7789242423</v>
       </c>
     </row>
     <row r="240">
@@ -11695,7 +11695,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>6956189534</v>
+        <v>3499065966</v>
       </c>
     </row>
     <row r="241">
@@ -11743,7 +11743,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>4049427927</v>
+        <v>1498161818</v>
       </c>
     </row>
     <row r="242">
@@ -11793,7 +11793,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>3026677967</v>
+        <v>6959978357</v>
       </c>
     </row>
     <row r="243">
@@ -11841,7 +11841,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>8734426520</v>
+        <v>351574452</v>
       </c>
     </row>
     <row r="244">
@@ -11889,7 +11889,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>1461202376</v>
+        <v>3755439211</v>
       </c>
     </row>
     <row r="245">
@@ -11937,7 +11937,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>5805901296</v>
+        <v>6778759158</v>
       </c>
     </row>
     <row r="246">
@@ -11985,7 +11985,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>146278319</v>
+        <v>9647536708</v>
       </c>
     </row>
     <row r="247">
@@ -12033,7 +12033,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>7236428083</v>
+        <v>6474324043</v>
       </c>
     </row>
     <row r="248">
@@ -12081,7 +12081,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>9829714146</v>
+        <v>3184002436</v>
       </c>
     </row>
     <row r="249">
@@ -12129,7 +12129,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>13944752</v>
+        <v>6564378939</v>
       </c>
     </row>
     <row r="250">
@@ -12177,7 +12177,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1668355003</v>
+        <v>6442648572</v>
       </c>
     </row>
     <row r="251">
@@ -12225,7 +12225,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>1076971632</v>
+        <v>8201101183</v>
       </c>
     </row>
     <row r="252">
@@ -12273,7 +12273,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>3528230729</v>
+        <v>428615335</v>
       </c>
     </row>
     <row r="253">
@@ -12319,7 +12319,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>7077920015</v>
+        <v>5819496831</v>
       </c>
     </row>
     <row r="254">
@@ -12365,7 +12365,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>1522519576</v>
+        <v>1412051702</v>
       </c>
     </row>
     <row r="255">
@@ -12411,7 +12411,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>2413092816</v>
+        <v>7850110118</v>
       </c>
     </row>
     <row r="256">
@@ -12457,7 +12457,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>5541169874</v>
+        <v>822878487</v>
       </c>
     </row>
     <row r="257">
@@ -12503,7 +12503,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>2995605279</v>
+        <v>7658435464</v>
       </c>
     </row>
     <row r="258">
@@ -12551,7 +12551,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>1922017026</v>
+        <v>4013733033</v>
       </c>
     </row>
     <row r="259">
@@ -12601,7 +12601,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>899127640</v>
+        <v>8714420388</v>
       </c>
     </row>
     <row r="260">
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>4894125014</v>
+        <v>2315452601</v>
       </c>
     </row>
     <row r="261">
@@ -12693,7 +12693,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>9341171955</v>
+        <v>3098062861</v>
       </c>
     </row>
     <row r="262">
@@ -12739,7 +12739,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>4865312547</v>
+        <v>8884899088</v>
       </c>
     </row>
     <row r="263">
@@ -12785,7 +12785,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>237883386</v>
+        <v>6780922722</v>
       </c>
     </row>
     <row r="264">
@@ -12833,7 +12833,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>505871018</v>
+        <v>7678455455</v>
       </c>
     </row>
     <row r="265">
@@ -12881,7 +12881,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>5194734427</v>
+        <v>2649738047</v>
       </c>
     </row>
     <row r="266">
@@ -12929,7 +12929,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>4607374848</v>
+        <v>8988462577</v>
       </c>
     </row>
     <row r="267">
@@ -12977,7 +12977,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>2289081188</v>
+        <v>4389745259</v>
       </c>
     </row>
     <row r="268">
@@ -13023,7 +13023,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>7466578178</v>
+        <v>4374795868</v>
       </c>
     </row>
     <row r="269">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>5032277959</v>
+        <v>1961240365</v>
       </c>
     </row>
     <row r="270">
@@ -13119,7 +13119,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>5882734144</v>
+        <v>3274256163</v>
       </c>
     </row>
     <row r="271">
@@ -13167,7 +13167,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>3991789250</v>
+        <v>9467212591</v>
       </c>
     </row>
     <row r="272">
@@ -13217,7 +13217,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>8498354668</v>
+        <v>5226951556</v>
       </c>
     </row>
     <row r="273">
@@ -13265,7 +13265,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>2095114622</v>
+        <v>4990467530</v>
       </c>
     </row>
     <row r="274">
@@ -13313,7 +13313,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>257248239</v>
+        <v>108697253</v>
       </c>
     </row>
     <row r="275">
@@ -13361,7 +13361,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>3030781715</v>
+        <v>5409706720</v>
       </c>
     </row>
     <row r="276">
@@ -13409,7 +13409,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>2712710152</v>
+        <v>9711672059</v>
       </c>
     </row>
     <row r="277">
@@ -13457,7 +13457,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>9348018299</v>
+        <v>7722516672</v>
       </c>
     </row>
     <row r="278">
@@ -13505,7 +13505,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>8097770158</v>
+        <v>5199913230</v>
       </c>
     </row>
     <row r="279">
@@ -13553,7 +13553,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>3265698868</v>
+        <v>7939818775</v>
       </c>
     </row>
     <row r="280">
@@ -13601,7 +13601,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>9258315150</v>
+        <v>4648511710</v>
       </c>
     </row>
     <row r="281">
@@ -13649,7 +13649,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>2461485451</v>
+        <v>31025793</v>
       </c>
     </row>
     <row r="282">
@@ -13697,7 +13697,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>7847034318</v>
+        <v>6118778421</v>
       </c>
     </row>
     <row r="283">
@@ -13745,7 +13745,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>1184591223</v>
+        <v>2463290975</v>
       </c>
     </row>
     <row r="284">
@@ -13793,7 +13793,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>5421114849</v>
+        <v>5959342875</v>
       </c>
     </row>
     <row r="285">
@@ -13841,7 +13841,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>2298448787</v>
+        <v>466689569</v>
       </c>
     </row>
     <row r="286">
@@ -13889,7 +13889,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>1792858300</v>
+        <v>3817581264</v>
       </c>
     </row>
     <row r="287">
@@ -13935,7 +13935,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>2670567080</v>
+        <v>3525515635</v>
       </c>
     </row>
     <row r="288">
@@ -13983,7 +13983,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>2046301926</v>
+        <v>5676644736</v>
       </c>
     </row>
     <row r="289">
@@ -14031,7 +14031,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>3269682211</v>
+        <v>2204817170</v>
       </c>
     </row>
     <row r="290">
@@ -14081,7 +14081,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>6233127005</v>
+        <v>1949250420</v>
       </c>
     </row>
     <row r="291">
@@ -14129,7 +14129,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>1001411045</v>
+        <v>4016805142</v>
       </c>
     </row>
     <row r="292">
@@ -14175,7 +14175,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>357149352</v>
+        <v>9103969753</v>
       </c>
     </row>
     <row r="293">
@@ -14223,7 +14223,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>1229343247</v>
+        <v>990852562</v>
       </c>
     </row>
     <row r="294">
@@ -14267,7 +14267,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>1290727898</v>
+        <v>678201122</v>
       </c>
     </row>
     <row r="295">
@@ -14315,7 +14315,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>47196752</v>
+        <v>1035041930</v>
       </c>
     </row>
     <row r="296">
@@ -14361,7 +14361,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>2197808061</v>
+        <v>2236191334</v>
       </c>
     </row>
     <row r="297">
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>1492263207</v>
+        <v>1926053324</v>
       </c>
     </row>
     <row r="298">
@@ -14453,7 +14453,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>6432956292</v>
+        <v>9067821993</v>
       </c>
     </row>
     <row r="299">
@@ -14501,7 +14501,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>3678108853</v>
+        <v>9849994500</v>
       </c>
     </row>
     <row r="300">
@@ -14549,7 +14549,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>9322437753</v>
+        <v>5154099039</v>
       </c>
     </row>
     <row r="301">
@@ -14597,7 +14597,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>3153860484</v>
+        <v>6332890828</v>
       </c>
     </row>
     <row r="302">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>6710375792</v>
+        <v>8377797174</v>
       </c>
     </row>
     <row r="303">
@@ -14695,7 +14695,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>4312358749</v>
+        <v>8201267935</v>
       </c>
     </row>
     <row r="304">
@@ -14743,7 +14743,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>8396291426</v>
+        <v>8539499204</v>
       </c>
     </row>
     <row r="305">
@@ -14791,7 +14791,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>5476048109</v>
+        <v>8480572196</v>
       </c>
     </row>
     <row r="306">
@@ -14839,7 +14839,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>4471466432</v>
+        <v>9912748753</v>
       </c>
     </row>
     <row r="307">
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>791025729</v>
+        <v>3446119689</v>
       </c>
     </row>
     <row r="308">
@@ -14935,7 +14935,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>9136831880</v>
+        <v>5765483394</v>
       </c>
     </row>
     <row r="309">
@@ -14983,7 +14983,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>957718266</v>
+        <v>4669439475</v>
       </c>
     </row>
     <row r="310">
@@ -15029,7 +15029,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>5733107520</v>
+        <v>6202452429</v>
       </c>
     </row>
     <row r="311">
@@ -15073,7 +15073,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>2334998948</v>
+        <v>7325100543</v>
       </c>
     </row>
     <row r="312">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>489902401</v>
+        <v>8922933756</v>
       </c>
     </row>
     <row r="313">
@@ -15169,7 +15169,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>6210780092</v>
+        <v>1156890851</v>
       </c>
     </row>
     <row r="314">
@@ -15217,7 +15217,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>131514831</v>
+        <v>3060537216</v>
       </c>
     </row>
     <row r="315">
@@ -15261,7 +15261,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>3950680755</v>
+        <v>5938918292</v>
       </c>
     </row>
     <row r="316">
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>6601762398</v>
+        <v>4830265207</v>
       </c>
     </row>
     <row r="317">
@@ -15357,7 +15357,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>1706373530</v>
+        <v>6619743202</v>
       </c>
     </row>
     <row r="318">
@@ -15405,7 +15405,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>9925224491</v>
+        <v>514749370</v>
       </c>
     </row>
     <row r="319">
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>2913566199</v>
+        <v>343735374</v>
       </c>
     </row>
     <row r="320">
@@ -15501,7 +15501,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>6206169122</v>
+        <v>968708383</v>
       </c>
     </row>
     <row r="321">
@@ -15549,7 +15549,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>6757719430</v>
+        <v>3469702899</v>
       </c>
     </row>
     <row r="322">
@@ -15593,7 +15593,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>1863576496</v>
+        <v>7733857762</v>
       </c>
     </row>
     <row r="323">
@@ -15637,7 +15637,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>7718719509</v>
+        <v>1738707876</v>
       </c>
     </row>
     <row r="324">
@@ -15681,7 +15681,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>5798107817</v>
+        <v>412222225</v>
       </c>
     </row>
     <row r="325">
@@ -15729,7 +15729,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>8267395660</v>
+        <v>7115565923</v>
       </c>
     </row>
     <row r="326">
@@ -15773,7 +15773,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>5275850074</v>
+        <v>6053357245</v>
       </c>
     </row>
     <row r="327">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>4861443115</v>
+        <v>9366723029</v>
       </c>
     </row>
     <row r="328">
@@ -15869,7 +15869,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>7770242658</v>
+        <v>7908381117</v>
       </c>
     </row>
     <row r="329">
@@ -15917,7 +15917,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>6370973635</v>
+        <v>8002817279</v>
       </c>
     </row>
     <row r="330">
@@ -15965,7 +15965,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>3356747292</v>
+        <v>7163426234</v>
       </c>
     </row>
     <row r="331">
@@ -16013,7 +16013,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>9811889719</v>
+        <v>2142498592</v>
       </c>
     </row>
     <row r="332">
@@ -16061,7 +16061,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>271191074</v>
+        <v>349304701</v>
       </c>
     </row>
     <row r="333">
@@ -16109,7 +16109,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>8938201469</v>
+        <v>4682303108</v>
       </c>
     </row>
     <row r="334">
@@ -16157,7 +16157,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>3864738980</v>
+        <v>3161745178</v>
       </c>
     </row>
     <row r="335">
@@ -16205,7 +16205,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>3246496861</v>
+        <v>2246945415</v>
       </c>
     </row>
     <row r="336">
@@ -16253,7 +16253,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>5209851745</v>
+        <v>6831627777</v>
       </c>
     </row>
     <row r="337">
@@ -16297,7 +16297,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>2795773266</v>
+        <v>9843879203</v>
       </c>
     </row>
     <row r="338">
@@ -16341,7 +16341,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>5101919235</v>
+        <v>7543186090</v>
       </c>
     </row>
     <row r="339">
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>1773022802</v>
+        <v>1365160813</v>
       </c>
     </row>
     <row r="340">
@@ -16437,7 +16437,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>3524757669</v>
+        <v>3334449685</v>
       </c>
     </row>
     <row r="341">
@@ -16485,7 +16485,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>916547694</v>
+        <v>8205576864</v>
       </c>
     </row>
     <row r="342">
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>3452729420</v>
+        <v>2038587859</v>
       </c>
     </row>
     <row r="343">
@@ -16581,7 +16581,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>555827652</v>
+        <v>4297311506</v>
       </c>
     </row>
     <row r="344">
@@ -16629,7 +16629,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>9136784252</v>
+        <v>9873382</v>
       </c>
     </row>
     <row r="345">
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>5890490550</v>
+        <v>6636403737</v>
       </c>
     </row>
     <row r="346">
@@ -16725,7 +16725,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>6631772738</v>
+        <v>7840476563</v>
       </c>
     </row>
     <row r="347">
@@ -16773,7 +16773,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>5318678735</v>
+        <v>8361638525</v>
       </c>
     </row>
     <row r="348">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>3739663626</v>
+        <v>5157360893</v>
       </c>
     </row>
     <row r="349">
@@ -16869,7 +16869,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>5231976149</v>
+        <v>2089410615</v>
       </c>
     </row>
     <row r="350">
@@ -16919,7 +16919,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>981608180</v>
+        <v>3482161903</v>
       </c>
     </row>
     <row r="351">
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>6175217505</v>
+        <v>8385201647</v>
       </c>
     </row>
     <row r="352">
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>1694747227</v>
+        <v>959124693</v>
       </c>
     </row>
     <row r="353">
@@ -17057,7 +17057,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>9818886402</v>
+        <v>2631951087</v>
       </c>
     </row>
     <row r="354">
@@ -17103,7 +17103,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>5990057687</v>
+        <v>8713727885</v>
       </c>
     </row>
     <row r="355">
@@ -17149,7 +17149,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>6691285685</v>
+        <v>7507131254</v>
       </c>
     </row>
     <row r="356">
@@ -17197,7 +17197,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>8240472782</v>
+        <v>8273748300</v>
       </c>
     </row>
     <row r="357">
@@ -17245,7 +17245,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>7784403221</v>
+        <v>2797716174</v>
       </c>
     </row>
     <row r="358">
@@ -17293,7 +17293,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>1770498527</v>
+        <v>3778057997</v>
       </c>
     </row>
     <row r="359">
@@ -17341,7 +17341,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>6606218124</v>
+        <v>6275882066</v>
       </c>
     </row>
     <row r="360">
@@ -17389,7 +17389,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>7606048873</v>
+        <v>6495932898</v>
       </c>
     </row>
     <row r="361">
@@ -17437,7 +17437,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>3030360366</v>
+        <v>6837072351</v>
       </c>
     </row>
     <row r="362">
@@ -17485,7 +17485,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>1617768718</v>
+        <v>8746504171</v>
       </c>
     </row>
     <row r="363">
@@ -17533,7 +17533,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>2810668395</v>
+        <v>72488443</v>
       </c>
     </row>
     <row r="364">
@@ -17581,7 +17581,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>448319376</v>
+        <v>2329579838</v>
       </c>
     </row>
     <row r="365">
@@ -17629,7 +17629,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>1721657526</v>
+        <v>6830982966</v>
       </c>
     </row>
     <row r="366">
@@ -17677,7 +17677,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>5415933771</v>
+        <v>9658956705</v>
       </c>
     </row>
     <row r="367">
@@ -17727,7 +17727,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>1404054743</v>
+        <v>4600804097</v>
       </c>
     </row>
     <row r="368">
@@ -17775,7 +17775,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>7220061363</v>
+        <v>6700576354</v>
       </c>
     </row>
     <row r="369">
@@ -17823,7 +17823,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>7123690793</v>
+        <v>295357414</v>
       </c>
     </row>
     <row r="370">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>3743740103</v>
+        <v>6454815118</v>
       </c>
     </row>
     <row r="371">
@@ -17919,7 +17919,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>5939187406</v>
+        <v>4284219884</v>
       </c>
     </row>
     <row r="372">
@@ -17967,7 +17967,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>9254476194</v>
+        <v>4548774416</v>
       </c>
     </row>
     <row r="373">
@@ -18011,7 +18011,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>7598966565</v>
+        <v>3405409322</v>
       </c>
     </row>
     <row r="374">
@@ -18055,7 +18055,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>3685306080</v>
+        <v>2664693244</v>
       </c>
     </row>
     <row r="375">
@@ -18105,7 +18105,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>6813237766</v>
+        <v>5296211345</v>
       </c>
     </row>
     <row r="376">
@@ -18153,7 +18153,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>7338576629</v>
+        <v>7682350156</v>
       </c>
     </row>
     <row r="377">
@@ -18201,7 +18201,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>1124882662</v>
+        <v>37912973</v>
       </c>
     </row>
     <row r="378">
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>4192966598</v>
+        <v>1225847365</v>
       </c>
     </row>
     <row r="379">
@@ -18295,7 +18295,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>795084622</v>
+        <v>4340714218</v>
       </c>
     </row>
     <row r="380">
@@ -18341,7 +18341,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>288019119</v>
+        <v>7016769860</v>
       </c>
     </row>
     <row r="381">
@@ -18387,7 +18387,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>3134006752</v>
+        <v>555806382</v>
       </c>
     </row>
     <row r="382">
@@ -18435,7 +18435,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>173652129</v>
+        <v>4087201952</v>
       </c>
     </row>
     <row r="383">
@@ -18483,7 +18483,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>6037474603</v>
+        <v>5839167990</v>
       </c>
     </row>
     <row r="384">
@@ -18531,7 +18531,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>5895714551</v>
+        <v>1301629012</v>
       </c>
     </row>
     <row r="385">
@@ -18579,7 +18579,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>2564192631</v>
+        <v>6470497011</v>
       </c>
     </row>
     <row r="386">
@@ -18625,7 +18625,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>7473436348</v>
+        <v>6916696532</v>
       </c>
     </row>
     <row r="387">
@@ -18673,7 +18673,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>5134087085</v>
+        <v>138055966</v>
       </c>
     </row>
     <row r="388">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>767418065</v>
+        <v>3776498646</v>
       </c>
     </row>
     <row r="389">
@@ -18767,7 +18767,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>5560545353</v>
+        <v>9564493985</v>
       </c>
     </row>
     <row r="390">
@@ -18815,7 +18815,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>148598379</v>
+        <v>7971987956</v>
       </c>
     </row>
     <row r="391">
@@ -18861,7 +18861,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>8233874714</v>
+        <v>2137400264</v>
       </c>
     </row>
     <row r="392">
@@ -18907,7 +18907,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>9971608495</v>
+        <v>9370327524</v>
       </c>
     </row>
     <row r="393">
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>6470632639</v>
+        <v>3977778783</v>
       </c>
     </row>
     <row r="394">
@@ -19001,7 +19001,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>2839792796</v>
+        <v>2578981685</v>
       </c>
     </row>
     <row r="395">
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>6655126087</v>
+        <v>123101619</v>
       </c>
     </row>
     <row r="396">
@@ -19095,7 +19095,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>8926343743</v>
+        <v>2148739559</v>
       </c>
     </row>
     <row r="397">
@@ -19145,7 +19145,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>6658050755</v>
+        <v>8126194564</v>
       </c>
     </row>
     <row r="398">
@@ -19193,7 +19193,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>5320033246</v>
+        <v>6432158525</v>
       </c>
     </row>
     <row r="399">
@@ -19241,7 +19241,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>6208815186</v>
+        <v>9977618818</v>
       </c>
     </row>
     <row r="400">
@@ -19291,7 +19291,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>6767760395</v>
+        <v>257954823</v>
       </c>
     </row>
     <row r="401">
@@ -19339,7 +19339,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>3226501581</v>
+        <v>7592535107</v>
       </c>
     </row>
     <row r="402">
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>6541107974</v>
+        <v>1326420021</v>
       </c>
     </row>
     <row r="403">
@@ -19435,7 +19435,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>6140405925</v>
+        <v>4990621990</v>
       </c>
     </row>
     <row r="404">
@@ -19483,7 +19483,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>4777219946</v>
+        <v>150948495</v>
       </c>
     </row>
     <row r="405">
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>7168824145</v>
+        <v>2095770502</v>
       </c>
     </row>
     <row r="406">
@@ -19579,7 +19579,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>2179999934</v>
+        <v>9119764673</v>
       </c>
     </row>
     <row r="407">
@@ -19627,7 +19627,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>6507918311</v>
+        <v>1546410441</v>
       </c>
     </row>
     <row r="408">
@@ -19673,7 +19673,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>8397030309</v>
+        <v>2928696635</v>
       </c>
     </row>
     <row r="409">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>9285577636</v>
+        <v>9644502249</v>
       </c>
     </row>
     <row r="410">
@@ -19769,7 +19769,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>9120096348</v>
+        <v>1985380805</v>
       </c>
     </row>
     <row r="411">
@@ -19817,7 +19817,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>2504929581</v>
+        <v>7427839661</v>
       </c>
     </row>
     <row r="412">
@@ -19867,7 +19867,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>4659927053</v>
+        <v>1203615793</v>
       </c>
     </row>
     <row r="413">
@@ -19913,7 +19913,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>7169788185</v>
+        <v>7090920255</v>
       </c>
     </row>
     <row r="414">
@@ -19961,7 +19961,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>3167707402</v>
+        <v>796684030</v>
       </c>
     </row>
     <row r="415">
@@ -20009,7 +20009,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>8354976748</v>
+        <v>770864165</v>
       </c>
     </row>
     <row r="416">
@@ -20057,7 +20057,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>1497125804</v>
+        <v>6199519092</v>
       </c>
     </row>
     <row r="417">
@@ -20105,7 +20105,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>8673889736</v>
+        <v>2050713099</v>
       </c>
     </row>
     <row r="418">
@@ -20153,7 +20153,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>853970146</v>
+        <v>2824207004</v>
       </c>
     </row>
     <row r="419">
@@ -20201,7 +20201,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>7208588588</v>
+        <v>7054560470</v>
       </c>
     </row>
     <row r="420">
@@ -20249,7 +20249,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>4798838842</v>
+        <v>7492787526</v>
       </c>
     </row>
     <row r="421">
@@ -20297,7 +20297,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>929147237</v>
+        <v>2608731507</v>
       </c>
     </row>
     <row r="422">
@@ -20345,7 +20345,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>1434124956</v>
+        <v>2853047881</v>
       </c>
     </row>
     <row r="423">
@@ -20391,7 +20391,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>6871632044</v>
+        <v>8641806477</v>
       </c>
     </row>
     <row r="424">
@@ -20439,7 +20439,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>6102003845</v>
+        <v>1459174142</v>
       </c>
     </row>
     <row r="425">
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>2741882823</v>
+        <v>1454441924</v>
       </c>
     </row>
     <row r="426">
@@ -20535,7 +20535,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>7701187530</v>
+        <v>2915594825</v>
       </c>
     </row>
     <row r="427">
@@ -20583,7 +20583,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>406327675</v>
+        <v>2762735066</v>
       </c>
     </row>
     <row r="428">
@@ -20631,7 +20631,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>1769020267</v>
+        <v>5815038072</v>
       </c>
     </row>
     <row r="429">
@@ -20679,7 +20679,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>9272958094</v>
+        <v>16440817</v>
       </c>
     </row>
     <row r="430">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>3070889399</v>
+        <v>3219704457</v>
       </c>
     </row>
     <row r="431">
@@ -20775,7 +20775,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>1845628663</v>
+        <v>2451681300</v>
       </c>
     </row>
     <row r="432">
@@ -20823,7 +20823,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>3520636160</v>
+        <v>186150352</v>
       </c>
     </row>
     <row r="433">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>3979146945</v>
+        <v>8844354616</v>
       </c>
     </row>
     <row r="434">
@@ -20919,7 +20919,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>9543395098</v>
+        <v>3043335464</v>
       </c>
     </row>
     <row r="435">
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>8258617157</v>
+        <v>4549839815</v>
       </c>
     </row>
     <row r="436">
@@ -21015,7 +21015,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>4663919365</v>
+        <v>1385851947</v>
       </c>
     </row>
     <row r="437">
@@ -21063,7 +21063,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>9191331650</v>
+        <v>7652003789</v>
       </c>
     </row>
     <row r="438">
@@ -21111,7 +21111,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>9875376933</v>
+        <v>7610765064</v>
       </c>
     </row>
     <row r="439">
@@ -21159,7 +21159,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>6167827370</v>
+        <v>1254283825</v>
       </c>
     </row>
     <row r="440">
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>9722794487</v>
+        <v>3687313749</v>
       </c>
     </row>
     <row r="441">
@@ -21255,7 +21255,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>6393404314</v>
+        <v>6976685374</v>
       </c>
     </row>
     <row r="442">
@@ -21303,7 +21303,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>3644828646</v>
+        <v>309935982</v>
       </c>
     </row>
     <row r="443">
@@ -21351,7 +21351,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>3694931685</v>
+        <v>9169738480</v>
       </c>
     </row>
     <row r="444">
@@ -21399,7 +21399,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>6862186996</v>
+        <v>8703563577</v>
       </c>
     </row>
     <row r="445">
@@ -21443,7 +21443,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>5517445300</v>
+        <v>6406271083</v>
       </c>
     </row>
     <row r="446">
@@ -21491,7 +21491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>5309264671</v>
+        <v>7184533516</v>
       </c>
     </row>
     <row r="447">
@@ -21539,7 +21539,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>6906057856</v>
+        <v>4231345158</v>
       </c>
     </row>
     <row r="448">
@@ -21587,7 +21587,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>648308357</v>
+        <v>501088113</v>
       </c>
     </row>
     <row r="449">
@@ -21635,7 +21635,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>7561392901</v>
+        <v>5209533190</v>
       </c>
     </row>
     <row r="450">
@@ -21683,7 +21683,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>8616185</v>
+        <v>261362498</v>
       </c>
     </row>
     <row r="451">
@@ -21731,7 +21731,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>443541844</v>
+        <v>3955782057</v>
       </c>
     </row>
     <row r="452">
@@ -21775,7 +21775,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>954392852</v>
+        <v>6142362745</v>
       </c>
     </row>
     <row r="453">
@@ -21823,7 +21823,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>4276463441</v>
+        <v>1831345567</v>
       </c>
     </row>
     <row r="454">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>8509801003</v>
+        <v>7262521191</v>
       </c>
     </row>
     <row r="455">
@@ -21919,7 +21919,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>6320487956</v>
+        <v>2054754983</v>
       </c>
     </row>
     <row r="456">
@@ -21967,7 +21967,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>3361412431</v>
+        <v>9739499247</v>
       </c>
     </row>
     <row r="457">
@@ -22015,7 +22015,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>5766366473</v>
+        <v>8413400283</v>
       </c>
     </row>
     <row r="458">
@@ -22063,7 +22063,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>1789397906</v>
+        <v>6298684971</v>
       </c>
     </row>
     <row r="459">
@@ -22111,7 +22111,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>4862064002</v>
+        <v>372039204</v>
       </c>
     </row>
     <row r="460">
@@ -22159,7 +22159,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>2157850594</v>
+        <v>9333901752</v>
       </c>
     </row>
     <row r="461">
@@ -22207,7 +22207,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>9810369552</v>
+        <v>5239178882</v>
       </c>
     </row>
     <row r="462">
@@ -22255,7 +22255,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>531292973</v>
+        <v>1004250500</v>
       </c>
     </row>
     <row r="463">
@@ -22303,7 +22303,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>3193609773</v>
+        <v>2223262038</v>
       </c>
     </row>
     <row r="464">
@@ -22351,7 +22351,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>1665046946</v>
+        <v>9237109479</v>
       </c>
     </row>
     <row r="465">
@@ -22399,7 +22399,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>4664963566</v>
+        <v>6848001607</v>
       </c>
     </row>
     <row r="466">
@@ -22447,7 +22447,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>7150713282</v>
+        <v>9097398827</v>
       </c>
     </row>
     <row r="467">
@@ -22491,7 +22491,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>6840005581</v>
+        <v>1819972616</v>
       </c>
     </row>
     <row r="468">
@@ -22539,7 +22539,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>9611302739</v>
+        <v>6516220879</v>
       </c>
     </row>
     <row r="469">
@@ -22587,7 +22587,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>1990938511</v>
+        <v>8885807322</v>
       </c>
     </row>
     <row r="470">
@@ -22635,7 +22635,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>7908492215</v>
+        <v>7369300039</v>
       </c>
     </row>
     <row r="471">
@@ -22683,7 +22683,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>4039756236</v>
+        <v>4372770366</v>
       </c>
     </row>
     <row r="472">
@@ -22731,7 +22731,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>2631070477</v>
+        <v>1625695827</v>
       </c>
     </row>
     <row r="473">
@@ -22779,7 +22779,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>8523335219</v>
+        <v>6414601506</v>
       </c>
     </row>
     <row r="474">
@@ -22829,7 +22829,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>1350256998</v>
+        <v>8803930033</v>
       </c>
     </row>
     <row r="475">
@@ -22877,7 +22877,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>9452929688</v>
+        <v>5371209298</v>
       </c>
     </row>
     <row r="476">
@@ -22927,7 +22927,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>7211227967</v>
+        <v>7167691202</v>
       </c>
     </row>
     <row r="477">
@@ -22975,7 +22975,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>4485091183</v>
+        <v>3934312344</v>
       </c>
     </row>
     <row r="478">
@@ -23023,7 +23023,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>2072327018</v>
+        <v>7702348544</v>
       </c>
     </row>
     <row r="479">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>6654207160</v>
+        <v>3830211082</v>
       </c>
     </row>
     <row r="480">
@@ -23119,7 +23119,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>3385480398</v>
+        <v>484296368</v>
       </c>
     </row>
     <row r="481">
@@ -23167,7 +23167,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>1818822127</v>
+        <v>3579723179</v>
       </c>
     </row>
     <row r="482">
@@ -23215,7 +23215,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>5253222688</v>
+        <v>7515818314</v>
       </c>
     </row>
     <row r="483">
@@ -23259,7 +23259,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>6157444138</v>
+        <v>5588577827</v>
       </c>
     </row>
     <row r="484">
@@ -23307,7 +23307,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>1546135487</v>
+        <v>3835633794</v>
       </c>
     </row>
     <row r="485">
@@ -23355,7 +23355,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>4572439698</v>
+        <v>6538324089</v>
       </c>
     </row>
     <row r="486">
@@ -23405,7 +23405,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>9808882422</v>
+        <v>7661241920</v>
       </c>
     </row>
     <row r="487">
@@ -23453,7 +23453,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>5430966464</v>
+        <v>4282952042</v>
       </c>
     </row>
     <row r="488">
@@ -23501,7 +23501,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>681739423</v>
+        <v>4688319779</v>
       </c>
     </row>
     <row r="489">
@@ -23549,7 +23549,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>4603470044</v>
+        <v>5191648159</v>
       </c>
     </row>
     <row r="490">
@@ -23597,7 +23597,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>2482362347</v>
+        <v>1353222138</v>
       </c>
     </row>
     <row r="491">
@@ -23645,7 +23645,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>8829921772</v>
+        <v>1481807544</v>
       </c>
     </row>
     <row r="492">
@@ -23693,7 +23693,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>3507921307</v>
+        <v>9530204024</v>
       </c>
     </row>
     <row r="493">
@@ -23741,7 +23741,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>6608377426</v>
+        <v>2964589281</v>
       </c>
     </row>
     <row r="494">
@@ -23789,7 +23789,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>9652229491</v>
+        <v>7478087025</v>
       </c>
     </row>
     <row r="495">
@@ -23837,7 +23837,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>8640223333</v>
+        <v>3349116783</v>
       </c>
     </row>
     <row r="496">
@@ -23885,7 +23885,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>9020625347</v>
+        <v>9747637165</v>
       </c>
     </row>
     <row r="497">
@@ -23933,7 +23933,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>3113389081</v>
+        <v>9241550663</v>
       </c>
     </row>
     <row r="498">
@@ -23981,7 +23981,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>8639516455</v>
+        <v>4601238021</v>
       </c>
     </row>
     <row r="499">
@@ -24029,7 +24029,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>5877887364</v>
+        <v>5849570577</v>
       </c>
     </row>
     <row r="500">
@@ -24077,7 +24077,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>8396896645</v>
+        <v>5754710805</v>
       </c>
     </row>
     <row r="501">
@@ -24125,7 +24125,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>4720848805</v>
+        <v>7970309877</v>
       </c>
     </row>
     <row r="502">
@@ -24175,7 +24175,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>3089680017</v>
+        <v>6902390708</v>
       </c>
     </row>
     <row r="503">
@@ -24223,7 +24223,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>3429072847</v>
+        <v>1358847981</v>
       </c>
     </row>
     <row r="504">
@@ -24273,7 +24273,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>1359707230</v>
+        <v>1033671584</v>
       </c>
     </row>
     <row r="505">
@@ -24317,7 +24317,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>5446480060</v>
+        <v>5009445234</v>
       </c>
     </row>
     <row r="506">
@@ -24365,7 +24365,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>354197802</v>
+        <v>8661977750</v>
       </c>
     </row>
     <row r="507">
@@ -24413,7 +24413,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>5705135971</v>
+        <v>3397911657</v>
       </c>
     </row>
     <row r="508">
@@ -24461,7 +24461,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>8032578192</v>
+        <v>913402395</v>
       </c>
     </row>
     <row r="509">
@@ -24509,7 +24509,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>2205398137</v>
+        <v>1995205180</v>
       </c>
     </row>
     <row r="510">
@@ -24557,7 +24557,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>8699187865</v>
+        <v>4765925353</v>
       </c>
     </row>
     <row r="511">
@@ -24605,7 +24605,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>9794234785</v>
+        <v>3331102105</v>
       </c>
     </row>
     <row r="512">
@@ -24653,7 +24653,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>2665072882</v>
+        <v>1094111583</v>
       </c>
     </row>
     <row r="513">
@@ -24701,7 +24701,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>3525138272</v>
+        <v>6665571472</v>
       </c>
     </row>
     <row r="514">
@@ -24749,7 +24749,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>4028864703</v>
+        <v>5681033438</v>
       </c>
     </row>
     <row r="515">
@@ -24797,7 +24797,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>8886067805</v>
+        <v>9664090671</v>
       </c>
     </row>
     <row r="516">
@@ -24845,7 +24845,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>4199646859</v>
+        <v>2687953300</v>
       </c>
     </row>
     <row r="517">
@@ -24893,7 +24893,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>5752551134</v>
+        <v>829230413</v>
       </c>
     </row>
     <row r="518">
@@ -24941,7 +24941,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>9461275730</v>
+        <v>7333278317</v>
       </c>
     </row>
     <row r="519">
@@ -24989,7 +24989,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>6291814985</v>
+        <v>6897848287</v>
       </c>
     </row>
     <row r="520">
@@ -25037,7 +25037,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>4582029459</v>
+        <v>2554680207</v>
       </c>
     </row>
     <row r="521">
@@ -25081,7 +25081,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>5561870330</v>
+        <v>5290343208</v>
       </c>
     </row>
     <row r="522">
@@ -25129,7 +25129,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>8679546715</v>
+        <v>4234737610</v>
       </c>
     </row>
     <row r="523">
@@ -25177,7 +25177,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>4726793551</v>
+        <v>4479694470</v>
       </c>
     </row>
     <row r="524">
@@ -25225,7 +25225,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>7264650737</v>
+        <v>1397310107</v>
       </c>
     </row>
     <row r="525">
@@ -25273,7 +25273,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>2887725609</v>
+        <v>4608645684</v>
       </c>
     </row>
     <row r="526">
@@ -25319,7 +25319,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>9883876390</v>
+        <v>8057958382</v>
       </c>
     </row>
     <row r="527">
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>4440783502</v>
+        <v>33400927</v>
       </c>
     </row>
     <row r="528">
@@ -25415,7 +25415,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>9284299304</v>
+        <v>7668265478</v>
       </c>
     </row>
     <row r="529">
@@ -25463,7 +25463,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>9727262853</v>
+        <v>6806928183</v>
       </c>
     </row>
     <row r="530">
@@ -25511,7 +25511,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>1358849581</v>
+        <v>3176233589</v>
       </c>
     </row>
     <row r="531">
@@ -25559,7 +25559,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>6709196334</v>
+        <v>8827840123</v>
       </c>
     </row>
     <row r="532">
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>1087766148</v>
+        <v>3323081935</v>
       </c>
     </row>
     <row r="533">
@@ -25655,7 +25655,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>7312485395</v>
+        <v>3040190047</v>
       </c>
     </row>
     <row r="534">
@@ -25703,7 +25703,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>4936879921</v>
+        <v>8251249469</v>
       </c>
     </row>
     <row r="535">
@@ -25751,7 +25751,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>2164888098</v>
+        <v>240937158</v>
       </c>
     </row>
     <row r="536">
@@ -25799,7 +25799,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>7995005518</v>
+        <v>7211381900</v>
       </c>
     </row>
     <row r="537">
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>2209364424</v>
+        <v>1540332974</v>
       </c>
     </row>
     <row r="538">
@@ -25895,7 +25895,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>1055664822</v>
+        <v>1157134438</v>
       </c>
     </row>
     <row r="539">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>3642160204</v>
+        <v>1661706683</v>
       </c>
     </row>
     <row r="540">
@@ -25987,7 +25987,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>2408238057</v>
+        <v>251513712</v>
       </c>
     </row>
     <row r="541">
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>6033892024</v>
+        <v>8187162819</v>
       </c>
     </row>
     <row r="542">
@@ -26085,7 +26085,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>628119180</v>
+        <v>181967088</v>
       </c>
     </row>
     <row r="543">
@@ -26133,7 +26133,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>8548452297</v>
+        <v>9333300492</v>
       </c>
     </row>
     <row r="544">
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>33343924</v>
+        <v>626394796</v>
       </c>
     </row>
     <row r="545">
@@ -26229,7 +26229,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>1086374040</v>
+        <v>9427841665</v>
       </c>
     </row>
     <row r="546">
@@ -26277,7 +26277,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>2848151855</v>
+        <v>1584129998</v>
       </c>
     </row>
     <row r="547">
@@ -26323,7 +26323,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>1437601196</v>
+        <v>2289924299</v>
       </c>
     </row>
     <row r="548">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>8782934241</v>
+        <v>4715317308</v>
       </c>
     </row>
     <row r="549">
@@ -26419,7 +26419,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>8015830005</v>
+        <v>3067633464</v>
       </c>
     </row>
     <row r="550">
@@ -26463,7 +26463,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>2411042026</v>
+        <v>8385388327</v>
       </c>
     </row>
     <row r="551">
@@ -26507,7 +26507,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>6887174097</v>
+        <v>5781677992</v>
       </c>
     </row>
     <row r="552">
@@ -26551,7 +26551,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>716071001</v>
+        <v>7154001299</v>
       </c>
     </row>
     <row r="553">
@@ -26599,7 +26599,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>2872671466</v>
+        <v>321465334</v>
       </c>
     </row>
     <row r="554">
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>8624799641</v>
+        <v>6906755468</v>
       </c>
     </row>
     <row r="555">
@@ -26695,7 +26695,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>8096042566</v>
+        <v>2245709391</v>
       </c>
     </row>
     <row r="556">
@@ -26739,7 +26739,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>9495914415</v>
+        <v>7793348278</v>
       </c>
     </row>
     <row r="557">
@@ -26783,7 +26783,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>4669916965</v>
+        <v>5569038542</v>
       </c>
     </row>
     <row r="558">
@@ -26827,7 +26827,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>6870252229</v>
+        <v>6140662412</v>
       </c>
     </row>
     <row r="559">
@@ -26873,7 +26873,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>4164980040</v>
+        <v>9312958406</v>
       </c>
     </row>
     <row r="560">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>6657326811</v>
+        <v>809579713</v>
       </c>
     </row>
     <row r="561">
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>1744810543</v>
+        <v>8606824842</v>
       </c>
     </row>
     <row r="562">
@@ -27013,7 +27013,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>4140846755</v>
+        <v>2852618420</v>
       </c>
     </row>
     <row r="563">
@@ -27059,7 +27059,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>9503929364</v>
+        <v>3762963856</v>
       </c>
     </row>
     <row r="564">
@@ -27105,7 +27105,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>6111632528</v>
+        <v>4960049563</v>
       </c>
     </row>
     <row r="565">
@@ -27153,7 +27153,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>8247848862</v>
+        <v>358819501</v>
       </c>
     </row>
     <row r="566">
@@ -27201,7 +27201,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>1552391269</v>
+        <v>1842199614</v>
       </c>
     </row>
     <row r="567">
@@ -27249,7 +27249,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>4065567692</v>
+        <v>9781845996</v>
       </c>
     </row>
     <row r="568">
@@ -27297,7 +27297,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>3358844048</v>
+        <v>609401783</v>
       </c>
     </row>
     <row r="569">
@@ -27345,7 +27345,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>5992001661</v>
+        <v>3391954209</v>
       </c>
     </row>
     <row r="570">
@@ -27395,7 +27395,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>3094321500</v>
+        <v>100028789</v>
       </c>
     </row>
     <row r="571">
@@ -27443,7 +27443,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>1045159884</v>
+        <v>8265670679</v>
       </c>
     </row>
     <row r="572">
@@ -27491,7 +27491,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>3763295912</v>
+        <v>3936543476</v>
       </c>
     </row>
     <row r="573">
@@ -27539,7 +27539,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>6693657857</v>
+        <v>1639773570</v>
       </c>
     </row>
     <row r="574">
@@ -27587,7 +27587,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>1193698824</v>
+        <v>2800947055</v>
       </c>
     </row>
     <row r="575">
@@ -27635,7 +27635,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>57631414</v>
+        <v>5888752491</v>
       </c>
     </row>
     <row r="576">
@@ -27683,7 +27683,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>9738855646</v>
+        <v>4383156086</v>
       </c>
     </row>
     <row r="577">
@@ -27731,7 +27731,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>2540139970</v>
+        <v>3917899340</v>
       </c>
     </row>
     <row r="578">
@@ -27779,7 +27779,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>6138869956</v>
+        <v>2526710549</v>
       </c>
     </row>
     <row r="579">
@@ -27825,7 +27825,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>1364592379</v>
+        <v>641456617</v>
       </c>
     </row>
     <row r="580">
@@ -27875,7 +27875,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>7470494084</v>
+        <v>7098544147</v>
       </c>
     </row>
     <row r="581">
@@ -27923,7 +27923,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>1478530085</v>
+        <v>5074084628</v>
       </c>
     </row>
     <row r="582">
@@ -27971,7 +27971,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>9934777427</v>
+        <v>3269398441</v>
       </c>
     </row>
     <row r="583">
@@ -28019,7 +28019,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>8525275548</v>
+        <v>3047769775</v>
       </c>
     </row>
     <row r="584">
@@ -28067,7 +28067,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>9590903403</v>
+        <v>7223113905</v>
       </c>
     </row>
     <row r="585">
@@ -28115,7 +28115,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>4922817941</v>
+        <v>2412261258</v>
       </c>
     </row>
     <row r="586">
@@ -28163,7 +28163,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>2725783453</v>
+        <v>5314891353</v>
       </c>
     </row>
     <row r="587">
@@ -28209,7 +28209,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>7097347420</v>
+        <v>333073237</v>
       </c>
     </row>
     <row r="588">
@@ -28257,7 +28257,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>6743453320</v>
+        <v>4549148558</v>
       </c>
     </row>
     <row r="589">
@@ -28305,7 +28305,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>8064683209</v>
+        <v>8922233298</v>
       </c>
     </row>
     <row r="590">
@@ -28353,7 +28353,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>5297330063</v>
+        <v>2464797120</v>
       </c>
     </row>
     <row r="591">
@@ -28401,7 +28401,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>3251196087</v>
+        <v>6641358368</v>
       </c>
     </row>
     <row r="592">
@@ -28449,7 +28449,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>4784171560</v>
+        <v>6080881367</v>
       </c>
     </row>
     <row r="593">
@@ -28497,7 +28497,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>3659499885</v>
+        <v>4864989637</v>
       </c>
     </row>
     <row r="594">
@@ -28547,7 +28547,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>528347848</v>
+        <v>4500314071</v>
       </c>
     </row>
     <row r="595">
@@ -28595,7 +28595,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>4347221187</v>
+        <v>9350128352</v>
       </c>
     </row>
     <row r="596">
@@ -28643,7 +28643,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>4884121763</v>
+        <v>4372256505</v>
       </c>
     </row>
     <row r="597">
@@ -28691,7 +28691,7 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>4888104121</v>
+        <v>6939018067</v>
       </c>
     </row>
     <row r="598">
@@ -28739,7 +28739,7 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>3376957608</v>
+        <v>2790044783</v>
       </c>
     </row>
     <row r="599">
@@ -28787,7 +28787,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>8105087211</v>
+        <v>8669579534</v>
       </c>
     </row>
     <row r="600">
@@ -28835,7 +28835,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>6514445012</v>
+        <v>6345203017</v>
       </c>
     </row>
     <row r="601">
@@ -28883,7 +28883,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>1800732593</v>
+        <v>1499439961</v>
       </c>
     </row>
     <row r="602">
@@ -28931,7 +28931,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>689415060</v>
+        <v>9583466536</v>
       </c>
     </row>
     <row r="603">
@@ -28979,7 +28979,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>525554444</v>
+        <v>9423618067</v>
       </c>
     </row>
     <row r="604">
@@ -29027,7 +29027,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>9405564768</v>
+        <v>2097651954</v>
       </c>
     </row>
     <row r="605">
@@ -29075,7 +29075,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>8822995470</v>
+        <v>6753731291</v>
       </c>
     </row>
     <row r="606">
@@ -29123,7 +29123,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>8441103609</v>
+        <v>4064281656</v>
       </c>
     </row>
     <row r="607">
@@ -29171,7 +29171,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>8058350852</v>
+        <v>4466220352</v>
       </c>
     </row>
     <row r="608">
@@ -29219,7 +29219,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>9158102964</v>
+        <v>1668422161</v>
       </c>
     </row>
     <row r="609">
@@ -29267,7 +29267,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>1977197616</v>
+        <v>9345695838</v>
       </c>
     </row>
     <row r="610">
@@ -29315,7 +29315,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>518172667</v>
+        <v>5355401970</v>
       </c>
     </row>
     <row r="611">
@@ -29363,7 +29363,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>8782510137</v>
+        <v>7222681989</v>
       </c>
     </row>
     <row r="612">
@@ -29411,7 +29411,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>367302130</v>
+        <v>8923594526</v>
       </c>
     </row>
     <row r="613">
@@ -29459,7 +29459,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>4130602870</v>
+        <v>9198464117</v>
       </c>
     </row>
     <row r="614">
@@ -29507,7 +29507,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>931437545</v>
+        <v>9262368088</v>
       </c>
     </row>
     <row r="615">
@@ -29555,7 +29555,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>9775666035</v>
+        <v>8522763734</v>
       </c>
     </row>
     <row r="616">
@@ -29603,7 +29603,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>8468286232</v>
+        <v>9530139395</v>
       </c>
     </row>
     <row r="617">
@@ -29651,7 +29651,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>2357064584</v>
+        <v>8286291912</v>
       </c>
     </row>
     <row r="618">
@@ -29697,7 +29697,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>1951206671</v>
+        <v>6181740746</v>
       </c>
     </row>
     <row r="619">
@@ -29747,7 +29747,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>5840807670</v>
+        <v>4851097871</v>
       </c>
     </row>
     <row r="620">
@@ -29795,7 +29795,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>6448005219</v>
+        <v>7965356265</v>
       </c>
     </row>
     <row r="621">
@@ -29843,7 +29843,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>7323960850</v>
+        <v>9143393354</v>
       </c>
     </row>
     <row r="622">
@@ -29891,7 +29891,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>5988001529</v>
+        <v>1540638610</v>
       </c>
     </row>
     <row r="623">
@@ -29939,7 +29939,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>2077353634</v>
+        <v>805901253</v>
       </c>
     </row>
     <row r="624">
@@ -29987,7 +29987,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>480795646</v>
+        <v>6668252901</v>
       </c>
     </row>
     <row r="625">
@@ -30035,7 +30035,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>7811404410</v>
+        <v>8010873225</v>
       </c>
     </row>
     <row r="626">
@@ -30081,7 +30081,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>5437215367</v>
+        <v>6112995665</v>
       </c>
     </row>
     <row r="627">
@@ -30129,7 +30129,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>8889690458</v>
+        <v>6934101903</v>
       </c>
     </row>
     <row r="628">
@@ -30175,7 +30175,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>4714920734</v>
+        <v>1095603242</v>
       </c>
     </row>
     <row r="629">
@@ -30221,7 +30221,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>8371565656</v>
+        <v>4632752922</v>
       </c>
     </row>
     <row r="630">
@@ -30271,7 +30271,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>2999294085</v>
+        <v>6825092338</v>
       </c>
     </row>
     <row r="631">
@@ -30319,7 +30319,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>8547869917</v>
+        <v>1872586538</v>
       </c>
     </row>
     <row r="632">
@@ -30367,7 +30367,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>2472487130</v>
+        <v>7915397578</v>
       </c>
     </row>
     <row r="633">
@@ -30415,7 +30415,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>702284678</v>
+        <v>7321446805</v>
       </c>
     </row>
     <row r="634">
@@ -30463,7 +30463,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>9747684889</v>
+        <v>1723451790</v>
       </c>
     </row>
     <row r="635">
@@ -30509,7 +30509,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>8030175780</v>
+        <v>5713346777</v>
       </c>
     </row>
     <row r="636">
@@ -30557,7 +30557,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>1167083660</v>
+        <v>7655922885</v>
       </c>
     </row>
     <row r="637">
@@ -30607,7 +30607,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>929168030</v>
+        <v>8693274603</v>
       </c>
     </row>
     <row r="638">
@@ -30653,7 +30653,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>7502535012</v>
+        <v>9648877166</v>
       </c>
     </row>
     <row r="639">
@@ -30699,7 +30699,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>6935274857</v>
+        <v>5457652273</v>
       </c>
     </row>
     <row r="640">
@@ -30745,7 +30745,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>2396403078</v>
+        <v>4255534279</v>
       </c>
     </row>
     <row r="641">
@@ -30791,7 +30791,7 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>7508909947</v>
+        <v>5294176144</v>
       </c>
     </row>
     <row r="642">
@@ -30837,7 +30837,7 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>7727142177</v>
+        <v>1229903932</v>
       </c>
     </row>
     <row r="643">
@@ -30883,7 +30883,7 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>7149685529</v>
+        <v>7438108525</v>
       </c>
     </row>
     <row r="644">
@@ -30929,7 +30929,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>4190501507</v>
+        <v>8047769057</v>
       </c>
     </row>
     <row r="645">
@@ -30975,7 +30975,7 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>4248715560</v>
+        <v>4980417081</v>
       </c>
     </row>
     <row r="646">
@@ -31021,7 +31021,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>4614770295</v>
+        <v>1311604317</v>
       </c>
     </row>
     <row r="647">
@@ -31067,7 +31067,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>2947487292</v>
+        <v>7038969821</v>
       </c>
     </row>
     <row r="648">
@@ -31113,7 +31113,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>3522816375</v>
+        <v>5768089610</v>
       </c>
     </row>
     <row r="649">
@@ -31159,7 +31159,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>202802096</v>
+        <v>4614276944</v>
       </c>
     </row>
     <row r="650">
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>9427064951</v>
+        <v>8329316830</v>
       </c>
     </row>
     <row r="651">
@@ -31253,7 +31253,7 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>1518230041</v>
+        <v>7062675725</v>
       </c>
     </row>
     <row r="652">
@@ -31299,7 +31299,7 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>4323775262</v>
+        <v>9432878227</v>
       </c>
     </row>
     <row r="653">
@@ -31347,7 +31347,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>8546008974</v>
+        <v>2388170787</v>
       </c>
     </row>
     <row r="654">
@@ -31393,7 +31393,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>103225153</v>
+        <v>7085271982</v>
       </c>
     </row>
     <row r="655">
@@ -31439,7 +31439,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>6355504972</v>
+        <v>180989490</v>
       </c>
     </row>
     <row r="656">
@@ -31485,7 +31485,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>1343511359</v>
+        <v>5340633513</v>
       </c>
     </row>
     <row r="657">
@@ -31533,7 +31533,7 @@
         </is>
       </c>
       <c r="P657" t="n">
-        <v>5863435837</v>
+        <v>7244765862</v>
       </c>
     </row>
     <row r="658">
@@ -31579,7 +31579,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>1976855835</v>
+        <v>3911865199</v>
       </c>
     </row>
     <row r="659">
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>6213684681</v>
+        <v>7211727919</v>
       </c>
     </row>
     <row r="660">
@@ -31675,7 +31675,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>22867972</v>
+        <v>8237471799</v>
       </c>
     </row>
     <row r="661">
@@ -31721,7 +31721,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>1786820504</v>
+        <v>412493225</v>
       </c>
     </row>
     <row r="662">
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>7002775679</v>
+        <v>9497247005</v>
       </c>
     </row>
     <row r="663">
@@ -31813,7 +31813,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>8585243451</v>
+        <v>9158469574</v>
       </c>
     </row>
     <row r="664">
@@ -31859,7 +31859,7 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>7598926805</v>
+        <v>2185795534</v>
       </c>
     </row>
     <row r="665">
@@ -31905,7 +31905,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>2064191015</v>
+        <v>3962389736</v>
       </c>
     </row>
     <row r="666">
@@ -31953,7 +31953,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>5834463319</v>
+        <v>2934147252</v>
       </c>
     </row>
     <row r="667">
@@ -32001,7 +32001,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>2724495951</v>
+        <v>6527231530</v>
       </c>
     </row>
     <row r="668">
@@ -32049,7 +32049,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>5931364053</v>
+        <v>8257454471</v>
       </c>
     </row>
     <row r="669">
@@ -32097,7 +32097,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>7393059084</v>
+        <v>738319789</v>
       </c>
     </row>
     <row r="670">
@@ -32145,7 +32145,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>9065473566</v>
+        <v>4798155673</v>
       </c>
     </row>
     <row r="671">
@@ -32193,7 +32193,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>886761175</v>
+        <v>9643352822</v>
       </c>
     </row>
     <row r="672">
@@ -32241,7 +32241,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>9080757484</v>
+        <v>2141881276</v>
       </c>
     </row>
     <row r="673">
@@ -32289,7 +32289,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>9334137943</v>
+        <v>3375069341</v>
       </c>
     </row>
     <row r="674">
@@ -32337,7 +32337,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>6376577165</v>
+        <v>4137635232</v>
       </c>
     </row>
     <row r="675">
@@ -32385,7 +32385,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>321458459</v>
+        <v>7764296946</v>
       </c>
     </row>
     <row r="676">
@@ -32433,7 +32433,7 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>6643324501</v>
+        <v>9728148457</v>
       </c>
     </row>
     <row r="677">
@@ -32483,7 +32483,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>2828409399</v>
+        <v>7200596877</v>
       </c>
     </row>
     <row r="678">
@@ -32531,7 +32531,7 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>940950297</v>
+        <v>52830912</v>
       </c>
     </row>
     <row r="679">
@@ -32579,7 +32579,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>3145191888</v>
+        <v>9784005817</v>
       </c>
     </row>
     <row r="680">
@@ -32627,7 +32627,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>9114176697</v>
+        <v>4802420418</v>
       </c>
     </row>
     <row r="681">
@@ -32675,7 +32675,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>4196344562</v>
+        <v>3407026459</v>
       </c>
     </row>
     <row r="682">
@@ -32723,7 +32723,7 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>7082005091</v>
+        <v>5962014120</v>
       </c>
     </row>
     <row r="683">
@@ -32771,7 +32771,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>3724027203</v>
+        <v>3605426528</v>
       </c>
     </row>
     <row r="684">
@@ -32819,7 +32819,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>4985165020</v>
+        <v>415315872</v>
       </c>
     </row>
     <row r="685">
@@ -32863,7 +32863,7 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>7198023263</v>
+        <v>47177985</v>
       </c>
     </row>
     <row r="686">
@@ -32911,7 +32911,7 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>6673872857</v>
+        <v>2137422757</v>
       </c>
     </row>
     <row r="687">
@@ -32959,7 +32959,7 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>9910042137</v>
+        <v>2517120421</v>
       </c>
     </row>
     <row r="688">
@@ -33007,7 +33007,7 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>5719012037</v>
+        <v>1644437271</v>
       </c>
     </row>
     <row r="689">
@@ -33055,7 +33055,7 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>4436619027</v>
+        <v>8748227676</v>
       </c>
     </row>
     <row r="690">
@@ -33103,7 +33103,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>103025485</v>
+        <v>9617868773</v>
       </c>
     </row>
     <row r="691">
@@ -33151,7 +33151,7 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>679132042</v>
+        <v>3340810662</v>
       </c>
     </row>
     <row r="692">
@@ -33199,7 +33199,7 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>4654600512</v>
+        <v>6285287727</v>
       </c>
     </row>
     <row r="693">
@@ -33247,7 +33247,7 @@
         </is>
       </c>
       <c r="P693" t="n">
-        <v>3974822805</v>
+        <v>7348189602</v>
       </c>
     </row>
     <row r="694">
@@ -33295,7 +33295,7 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>2672063236</v>
+        <v>4305523335</v>
       </c>
     </row>
     <row r="695">
@@ -33343,7 +33343,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>4378567565</v>
+        <v>3870299788</v>
       </c>
     </row>
     <row r="696">
@@ -33391,7 +33391,7 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>2319184396</v>
+        <v>2181794545</v>
       </c>
     </row>
     <row r="697">
@@ -33439,7 +33439,7 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>1178805435</v>
+        <v>6846519801</v>
       </c>
     </row>
     <row r="698">
@@ -33487,7 +33487,7 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>2245954868</v>
+        <v>5042343297</v>
       </c>
     </row>
     <row r="699">
@@ -33535,7 +33535,7 @@
         </is>
       </c>
       <c r="P699" t="n">
-        <v>7531831714</v>
+        <v>6296335085</v>
       </c>
     </row>
     <row r="700">
@@ -33583,7 +33583,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>5845049475</v>
+        <v>284480735</v>
       </c>
     </row>
     <row r="701">
@@ -33631,7 +33631,7 @@
         </is>
       </c>
       <c r="P701" t="n">
-        <v>7174701807</v>
+        <v>7348217058</v>
       </c>
     </row>
     <row r="702">
@@ -33679,7 +33679,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>1127295804</v>
+        <v>5179943875</v>
       </c>
     </row>
     <row r="703">
@@ -33727,7 +33727,7 @@
         </is>
       </c>
       <c r="P703" t="n">
-        <v>6838162337</v>
+        <v>2363168575</v>
       </c>
     </row>
     <row r="704">
@@ -33775,7 +33775,7 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>714099291</v>
+        <v>5715031342</v>
       </c>
     </row>
     <row r="705">
@@ -33821,7 +33821,7 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>2268417755</v>
+        <v>1908934068</v>
       </c>
     </row>
     <row r="706">
@@ -33871,7 +33871,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>7781570172</v>
+        <v>3067873864</v>
       </c>
     </row>
     <row r="707">
@@ -33919,7 +33919,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>1375691973</v>
+        <v>3807500735</v>
       </c>
     </row>
     <row r="708">
@@ -33967,7 +33967,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>5534979976</v>
+        <v>746676369</v>
       </c>
     </row>
     <row r="709">
@@ -34015,7 +34015,7 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>7212763554</v>
+        <v>691106711</v>
       </c>
     </row>
     <row r="710">
@@ -34059,7 +34059,7 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>9156062251</v>
+        <v>8743860906</v>
       </c>
     </row>
     <row r="711">
@@ -34107,7 +34107,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>1131432683</v>
+        <v>3343116920</v>
       </c>
     </row>
     <row r="712">
@@ -34155,7 +34155,7 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>7840320973</v>
+        <v>8535563650</v>
       </c>
     </row>
     <row r="713">
@@ -34203,7 +34203,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>5281542306</v>
+        <v>3755850933</v>
       </c>
     </row>
     <row r="714">
@@ -34251,7 +34251,7 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>9397753016</v>
+        <v>689008372</v>
       </c>
     </row>
     <row r="715">
@@ -34299,7 +34299,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>2796224562</v>
+        <v>4172895456</v>
       </c>
     </row>
     <row r="716">
@@ -34347,7 +34347,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>177658464</v>
+        <v>3536820370</v>
       </c>
     </row>
     <row r="717">
@@ -34395,7 +34395,7 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>7233388533</v>
+        <v>7368594717</v>
       </c>
     </row>
     <row r="718">
@@ -34443,7 +34443,7 @@
         </is>
       </c>
       <c r="P718" t="n">
-        <v>7117082393</v>
+        <v>3936297223</v>
       </c>
     </row>
     <row r="719">
@@ -34491,7 +34491,7 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>1057392270</v>
+        <v>7268976359</v>
       </c>
     </row>
     <row r="720">
@@ -34539,7 +34539,7 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>5448372333</v>
+        <v>8725317746</v>
       </c>
     </row>
     <row r="721">
@@ -34587,7 +34587,7 @@
         </is>
       </c>
       <c r="P721" t="n">
-        <v>5095827165</v>
+        <v>5507831485</v>
       </c>
     </row>
     <row r="722">
@@ -34635,7 +34635,7 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>4590128316</v>
+        <v>3148136846</v>
       </c>
     </row>
     <row r="723">
@@ -34683,7 +34683,7 @@
         </is>
       </c>
       <c r="P723" t="n">
-        <v>3763954734</v>
+        <v>7738707791</v>
       </c>
     </row>
     <row r="724">
@@ -34731,7 +34731,7 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>1224157193</v>
+        <v>6749417053</v>
       </c>
     </row>
     <row r="725">
@@ -34779,7 +34779,7 @@
         </is>
       </c>
       <c r="P725" t="n">
-        <v>4517519767</v>
+        <v>4990731028</v>
       </c>
     </row>
     <row r="726">
@@ -34827,7 +34827,7 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>7649215956</v>
+        <v>1158437931</v>
       </c>
     </row>
     <row r="727">
@@ -34875,7 +34875,7 @@
         </is>
       </c>
       <c r="P727" t="n">
-        <v>6640132949</v>
+        <v>1003991545</v>
       </c>
     </row>
     <row r="728">
@@ -34923,7 +34923,7 @@
         </is>
       </c>
       <c r="P728" t="n">
-        <v>4782854566</v>
+        <v>2013969465</v>
       </c>
     </row>
     <row r="729">
@@ -34971,7 +34971,7 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>1969236399</v>
+        <v>3616368090</v>
       </c>
     </row>
     <row r="730">
@@ -35019,7 +35019,7 @@
         </is>
       </c>
       <c r="P730" t="n">
-        <v>3793183895</v>
+        <v>6428776298</v>
       </c>
     </row>
     <row r="731">
@@ -35067,7 +35067,7 @@
         </is>
       </c>
       <c r="P731" t="n">
-        <v>1731795284</v>
+        <v>1085042999</v>
       </c>
     </row>
     <row r="732">
@@ -35115,7 +35115,7 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>9690609891</v>
+        <v>8544097611</v>
       </c>
     </row>
     <row r="733">
@@ -35163,7 +35163,7 @@
         </is>
       </c>
       <c r="P733" t="n">
-        <v>9212199201</v>
+        <v>6325116064</v>
       </c>
     </row>
     <row r="734">
@@ -35211,7 +35211,7 @@
         </is>
       </c>
       <c r="P734" t="n">
-        <v>8375116464</v>
+        <v>682812419</v>
       </c>
     </row>
     <row r="735">
@@ -35259,7 +35259,7 @@
         </is>
       </c>
       <c r="P735" t="n">
-        <v>6968751480</v>
+        <v>2360075979</v>
       </c>
     </row>
     <row r="736">
@@ -35307,7 +35307,7 @@
         </is>
       </c>
       <c r="P736" t="n">
-        <v>1230223630</v>
+        <v>8438710690</v>
       </c>
     </row>
     <row r="737">
@@ -35355,7 +35355,7 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>6930720110</v>
+        <v>3031581011</v>
       </c>
     </row>
     <row r="738">
@@ -35403,7 +35403,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>3930403938</v>
+        <v>8168104888</v>
       </c>
     </row>
     <row r="739">
@@ -35451,7 +35451,7 @@
         </is>
       </c>
       <c r="P739" t="n">
-        <v>9400703188</v>
+        <v>8170788501</v>
       </c>
     </row>
     <row r="740">
@@ -35499,7 +35499,7 @@
         </is>
       </c>
       <c r="P740" t="n">
-        <v>4333075898</v>
+        <v>5490043731</v>
       </c>
     </row>
     <row r="741">
@@ -35547,7 +35547,7 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>7517540873</v>
+        <v>3192907631</v>
       </c>
     </row>
     <row r="742">
@@ -35595,7 +35595,7 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>7964094212</v>
+        <v>536367616</v>
       </c>
     </row>
     <row r="743">
@@ -35643,7 +35643,7 @@
         </is>
       </c>
       <c r="P743" t="n">
-        <v>3874259200</v>
+        <v>7535757909</v>
       </c>
     </row>
     <row r="744">
@@ -35691,7 +35691,7 @@
         </is>
       </c>
       <c r="P744" t="n">
-        <v>2692437656</v>
+        <v>9521640843</v>
       </c>
     </row>
     <row r="745">
@@ -35739,7 +35739,7 @@
         </is>
       </c>
       <c r="P745" t="n">
-        <v>9402214792</v>
+        <v>3825369843</v>
       </c>
     </row>
     <row r="746">
@@ -35787,7 +35787,7 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>8669113263</v>
+        <v>8312524728</v>
       </c>
     </row>
     <row r="747">
@@ -35835,7 +35835,7 @@
         </is>
       </c>
       <c r="P747" t="n">
-        <v>7151016561</v>
+        <v>7488755020</v>
       </c>
     </row>
     <row r="748">
@@ -35883,7 +35883,7 @@
         </is>
       </c>
       <c r="P748" t="n">
-        <v>3461874732</v>
+        <v>129959718</v>
       </c>
     </row>
     <row r="749">
@@ -35931,7 +35931,7 @@
         </is>
       </c>
       <c r="P749" t="n">
-        <v>5204212418</v>
+        <v>7212105407</v>
       </c>
     </row>
     <row r="750">
@@ -35979,7 +35979,7 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>1830836299</v>
+        <v>3374834842</v>
       </c>
     </row>
     <row r="751">
@@ -36027,7 +36027,7 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>5729391653</v>
+        <v>2279885322</v>
       </c>
     </row>
     <row r="752">
@@ -36075,7 +36075,7 @@
         </is>
       </c>
       <c r="P752" t="n">
-        <v>4585075653</v>
+        <v>6403082819</v>
       </c>
     </row>
     <row r="753">
@@ -36123,7 +36123,7 @@
         </is>
       </c>
       <c r="P753" t="n">
-        <v>976565614</v>
+        <v>1074579366</v>
       </c>
     </row>
     <row r="754">
@@ -36171,7 +36171,7 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>6991515511</v>
+        <v>6509142664</v>
       </c>
     </row>
     <row r="755">
@@ -36219,7 +36219,7 @@
         </is>
       </c>
       <c r="P755" t="n">
-        <v>9443436002</v>
+        <v>3841054441</v>
       </c>
     </row>
     <row r="756">
@@ -36267,7 +36267,7 @@
         </is>
       </c>
       <c r="P756" t="n">
-        <v>6587307863</v>
+        <v>7710821776</v>
       </c>
     </row>
     <row r="757">
@@ -36315,7 +36315,7 @@
         </is>
       </c>
       <c r="P757" t="n">
-        <v>9446308937</v>
+        <v>5384484923</v>
       </c>
     </row>
     <row r="758">
@@ -36363,7 +36363,7 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>7964208902</v>
+        <v>2909049687</v>
       </c>
     </row>
     <row r="759">
@@ -36411,7 +36411,7 @@
         </is>
       </c>
       <c r="P759" t="n">
-        <v>5567047498</v>
+        <v>5111783091</v>
       </c>
     </row>
     <row r="760">
@@ -36459,7 +36459,7 @@
         </is>
       </c>
       <c r="P760" t="n">
-        <v>1688664185</v>
+        <v>3162247860</v>
       </c>
     </row>
     <row r="761">
@@ -36507,7 +36507,7 @@
         </is>
       </c>
       <c r="P761" t="n">
-        <v>1588383123</v>
+        <v>1982456265</v>
       </c>
     </row>
     <row r="762">
@@ -36555,7 +36555,7 @@
         </is>
       </c>
       <c r="P762" t="n">
-        <v>3350762381</v>
+        <v>4698298294</v>
       </c>
     </row>
     <row r="763">
@@ -36605,7 +36605,7 @@
         </is>
       </c>
       <c r="P763" t="n">
-        <v>1681746973</v>
+        <v>8088941356</v>
       </c>
     </row>
     <row r="764">
@@ -36653,7 +36653,7 @@
         </is>
       </c>
       <c r="P764" t="n">
-        <v>9825258550</v>
+        <v>2436031831</v>
       </c>
     </row>
     <row r="765">
@@ -36701,7 +36701,7 @@
         </is>
       </c>
       <c r="P765" t="n">
-        <v>5176902833</v>
+        <v>7611983668</v>
       </c>
     </row>
     <row r="766">
@@ -36749,7 +36749,7 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>4125345299</v>
+        <v>8709392756</v>
       </c>
     </row>
     <row r="767">
@@ -36797,7 +36797,7 @@
         </is>
       </c>
       <c r="P767" t="n">
-        <v>5922898893</v>
+        <v>9204485963</v>
       </c>
     </row>
     <row r="768">
@@ -36845,7 +36845,7 @@
         </is>
       </c>
       <c r="P768" t="n">
-        <v>9204585154</v>
+        <v>255419568</v>
       </c>
     </row>
     <row r="769">
@@ -36893,7 +36893,7 @@
         </is>
       </c>
       <c r="P769" t="n">
-        <v>6445486781</v>
+        <v>3070168787</v>
       </c>
     </row>
     <row r="770">
@@ -36941,7 +36941,7 @@
         </is>
       </c>
       <c r="P770" t="n">
-        <v>7722575086</v>
+        <v>5295600524</v>
       </c>
     </row>
     <row r="771">
@@ -36989,7 +36989,7 @@
         </is>
       </c>
       <c r="P771" t="n">
-        <v>9917421519</v>
+        <v>8110840528</v>
       </c>
     </row>
     <row r="772">
@@ -37037,7 +37037,7 @@
         </is>
       </c>
       <c r="P772" t="n">
-        <v>3370635784</v>
+        <v>7276818953</v>
       </c>
     </row>
     <row r="773">
@@ -37085,7 +37085,7 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>9690975507</v>
+        <v>6362530537</v>
       </c>
     </row>
     <row r="774">
@@ -37133,7 +37133,7 @@
         </is>
       </c>
       <c r="P774" t="n">
-        <v>5480404909</v>
+        <v>7736233340</v>
       </c>
     </row>
     <row r="775">
@@ -37181,7 +37181,7 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>590526902</v>
+        <v>6596505759</v>
       </c>
     </row>
     <row r="776">
@@ -37229,7 +37229,7 @@
         </is>
       </c>
       <c r="P776" t="n">
-        <v>1412694410</v>
+        <v>7284049889</v>
       </c>
     </row>
     <row r="777">
@@ -37277,7 +37277,7 @@
         </is>
       </c>
       <c r="P777" t="n">
-        <v>9551528654</v>
+        <v>1921428525</v>
       </c>
     </row>
     <row r="778">
@@ -37325,7 +37325,7 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>1584914682</v>
+        <v>917907258</v>
       </c>
     </row>
     <row r="779">
@@ -37373,7 +37373,7 @@
         </is>
       </c>
       <c r="P779" t="n">
-        <v>9027191080</v>
+        <v>3026202298</v>
       </c>
     </row>
     <row r="780">
@@ -37421,7 +37421,7 @@
         </is>
       </c>
       <c r="P780" t="n">
-        <v>777827297</v>
+        <v>6287550488</v>
       </c>
     </row>
     <row r="781">
@@ -37471,7 +37471,7 @@
         </is>
       </c>
       <c r="P781" t="n">
-        <v>148006743</v>
+        <v>1809906537</v>
       </c>
     </row>
     <row r="782">
@@ -37519,7 +37519,7 @@
         </is>
       </c>
       <c r="P782" t="n">
-        <v>6827163054</v>
+        <v>5179764941</v>
       </c>
     </row>
     <row r="783">
@@ -37567,7 +37567,7 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>5755649161</v>
+        <v>313223061</v>
       </c>
     </row>
     <row r="784">
@@ -37615,7 +37615,7 @@
         </is>
       </c>
       <c r="P784" t="n">
-        <v>768526524</v>
+        <v>5465579660</v>
       </c>
     </row>
     <row r="785">
@@ -37663,7 +37663,7 @@
         </is>
       </c>
       <c r="P785" t="n">
-        <v>3773427989</v>
+        <v>2399132163</v>
       </c>
     </row>
     <row r="786">
@@ -37711,7 +37711,7 @@
         </is>
       </c>
       <c r="P786" t="n">
-        <v>2351425806</v>
+        <v>3199646483</v>
       </c>
     </row>
     <row r="787">
@@ -37759,7 +37759,7 @@
         </is>
       </c>
       <c r="P787" t="n">
-        <v>9242143123</v>
+        <v>5874296623</v>
       </c>
     </row>
     <row r="788">
@@ -37807,7 +37807,7 @@
         </is>
       </c>
       <c r="P788" t="n">
-        <v>3872562435</v>
+        <v>2782022999</v>
       </c>
     </row>
     <row r="789">
@@ -37855,7 +37855,7 @@
         </is>
       </c>
       <c r="P789" t="n">
-        <v>1790755006</v>
+        <v>4344958737</v>
       </c>
     </row>
     <row r="790">
@@ -37903,7 +37903,7 @@
         </is>
       </c>
       <c r="P790" t="n">
-        <v>1855417381</v>
+        <v>7183246836</v>
       </c>
     </row>
     <row r="791">
@@ -37951,7 +37951,7 @@
         </is>
       </c>
       <c r="P791" t="n">
-        <v>6314796834</v>
+        <v>9199077300</v>
       </c>
     </row>
     <row r="792">
@@ -37999,7 +37999,7 @@
         </is>
       </c>
       <c r="P792" t="n">
-        <v>9137743145</v>
+        <v>4674606529</v>
       </c>
     </row>
     <row r="793">
@@ -38047,7 +38047,7 @@
         </is>
       </c>
       <c r="P793" t="n">
-        <v>4007643162</v>
+        <v>7831182001</v>
       </c>
     </row>
     <row r="794">
@@ -38095,7 +38095,7 @@
         </is>
       </c>
       <c r="P794" t="n">
-        <v>2591349723</v>
+        <v>5609276862</v>
       </c>
     </row>
     <row r="795">
@@ -38143,7 +38143,7 @@
         </is>
       </c>
       <c r="P795" t="n">
-        <v>9523686796</v>
+        <v>4541688565</v>
       </c>
     </row>
     <row r="796">
@@ -38191,7 +38191,7 @@
         </is>
       </c>
       <c r="P796" t="n">
-        <v>7047826849</v>
+        <v>4530969197</v>
       </c>
     </row>
     <row r="797">
@@ -38239,7 +38239,7 @@
         </is>
       </c>
       <c r="P797" t="n">
-        <v>8526112442</v>
+        <v>807179887</v>
       </c>
     </row>
     <row r="798">
@@ -38287,7 +38287,7 @@
         </is>
       </c>
       <c r="P798" t="n">
-        <v>4735219981</v>
+        <v>6486163338</v>
       </c>
     </row>
     <row r="799">
@@ -38335,7 +38335,7 @@
         </is>
       </c>
       <c r="P799" t="n">
-        <v>4931992485</v>
+        <v>9540763764</v>
       </c>
     </row>
     <row r="800">
@@ -38383,7 +38383,7 @@
         </is>
       </c>
       <c r="P800" t="n">
-        <v>1982905540</v>
+        <v>4193100952</v>
       </c>
     </row>
     <row r="801">
@@ -38431,7 +38431,7 @@
         </is>
       </c>
       <c r="P801" t="n">
-        <v>5562042388</v>
+        <v>4214049492</v>
       </c>
     </row>
     <row r="802">
@@ -38479,7 +38479,7 @@
         </is>
       </c>
       <c r="P802" t="n">
-        <v>5344295105</v>
+        <v>6072157373</v>
       </c>
     </row>
     <row r="803">
@@ -38527,7 +38527,7 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>1772679513</v>
+        <v>9643009837</v>
       </c>
     </row>
     <row r="804">
@@ -38575,7 +38575,7 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>6792932430</v>
+        <v>2469773290</v>
       </c>
     </row>
     <row r="805">
@@ -38623,7 +38623,7 @@
         </is>
       </c>
       <c r="P805" t="n">
-        <v>3792810349</v>
+        <v>4189569291</v>
       </c>
     </row>
     <row r="806">
@@ -38671,7 +38671,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>4976150886</v>
+        <v>3592746996</v>
       </c>
     </row>
     <row r="807">
@@ -38719,7 +38719,7 @@
         </is>
       </c>
       <c r="P807" t="n">
-        <v>38611921</v>
+        <v>5186202813</v>
       </c>
     </row>
     <row r="808">
@@ -38769,7 +38769,7 @@
         </is>
       </c>
       <c r="P808" t="n">
-        <v>8939092411</v>
+        <v>4428749843</v>
       </c>
     </row>
     <row r="809">
@@ -38817,7 +38817,7 @@
         </is>
       </c>
       <c r="P809" t="n">
-        <v>4803639274</v>
+        <v>4001549949</v>
       </c>
     </row>
     <row r="810">
@@ -38865,7 +38865,7 @@
         </is>
       </c>
       <c r="P810" t="n">
-        <v>2374088945</v>
+        <v>7869828944</v>
       </c>
     </row>
     <row r="811">
@@ -38915,7 +38915,7 @@
         </is>
       </c>
       <c r="P811" t="n">
-        <v>8632423624</v>
+        <v>9061318588</v>
       </c>
     </row>
     <row r="812">
@@ -38963,7 +38963,7 @@
         </is>
       </c>
       <c r="P812" t="n">
-        <v>5557755434</v>
+        <v>1134966657</v>
       </c>
     </row>
     <row r="813">
@@ -39013,7 +39013,7 @@
         </is>
       </c>
       <c r="P813" t="n">
-        <v>9241421306</v>
+        <v>5131701778</v>
       </c>
     </row>
     <row r="814">
@@ -39063,7 +39063,7 @@
         </is>
       </c>
       <c r="P814" t="n">
-        <v>1940630860</v>
+        <v>2743906740</v>
       </c>
     </row>
     <row r="815">
@@ -39111,7 +39111,7 @@
         </is>
       </c>
       <c r="P815" t="n">
-        <v>6363408576</v>
+        <v>1975115492</v>
       </c>
     </row>
     <row r="816">
@@ -39161,7 +39161,7 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>7362021294</v>
+        <v>7148959109</v>
       </c>
     </row>
     <row r="817">
@@ -39211,7 +39211,7 @@
         </is>
       </c>
       <c r="P817" t="n">
-        <v>345164709</v>
+        <v>4449040908</v>
       </c>
     </row>
     <row r="818">
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>5858426347</v>
+        <v>867350085</v>
       </c>
     </row>
     <row r="819">
@@ -39307,7 +39307,7 @@
         </is>
       </c>
       <c r="P819" t="n">
-        <v>4896422829</v>
+        <v>3054707945</v>
       </c>
     </row>
     <row r="820">
@@ -39355,7 +39355,7 @@
         </is>
       </c>
       <c r="P820" t="n">
-        <v>1559650435</v>
+        <v>1042034682</v>
       </c>
     </row>
     <row r="821">
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P821" t="n">
-        <v>1223442359</v>
+        <v>3019817229</v>
       </c>
     </row>
     <row r="822">
@@ -39451,7 +39451,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>4398018911</v>
+        <v>8749980214</v>
       </c>
     </row>
     <row r="823">
@@ -39499,7 +39499,7 @@
         </is>
       </c>
       <c r="P823" t="n">
-        <v>629051212</v>
+        <v>5923687893</v>
       </c>
     </row>
     <row r="824">
@@ -39549,7 +39549,7 @@
         </is>
       </c>
       <c r="P824" t="n">
-        <v>1796084579</v>
+        <v>2255678453</v>
       </c>
     </row>
     <row r="825">
@@ -39597,7 +39597,7 @@
         </is>
       </c>
       <c r="P825" t="n">
-        <v>5057267836</v>
+        <v>1420921152</v>
       </c>
     </row>
     <row r="826">
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="P826" t="n">
-        <v>2350320755</v>
+        <v>9488891943</v>
       </c>
     </row>
     <row r="827">
@@ -39693,7 +39693,7 @@
         </is>
       </c>
       <c r="P827" t="n">
-        <v>6618644669</v>
+        <v>7922954038</v>
       </c>
     </row>
     <row r="828">
@@ -39741,7 +39741,7 @@
         </is>
       </c>
       <c r="P828" t="n">
-        <v>6627963647</v>
+        <v>3979004295</v>
       </c>
     </row>
     <row r="829">
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="P829" t="n">
-        <v>5343405072</v>
+        <v>3963046897</v>
       </c>
     </row>
     <row r="830">
@@ -39839,7 +39839,7 @@
         </is>
       </c>
       <c r="P830" t="n">
-        <v>2045387760</v>
+        <v>3638713887</v>
       </c>
     </row>
     <row r="831">
@@ -39887,7 +39887,7 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>7895225095</v>
+        <v>6443245464</v>
       </c>
     </row>
     <row r="832">
@@ -39937,7 +39937,7 @@
         </is>
       </c>
       <c r="P832" t="n">
-        <v>7150930512</v>
+        <v>784923347</v>
       </c>
     </row>
     <row r="833">
@@ -39985,7 +39985,7 @@
         </is>
       </c>
       <c r="P833" t="n">
-        <v>193701839</v>
+        <v>1738219030</v>
       </c>
     </row>
     <row r="834">
@@ -40031,7 +40031,7 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>4271369066</v>
+        <v>1180678470</v>
       </c>
     </row>
     <row r="835">
@@ -40079,7 +40079,7 @@
         </is>
       </c>
       <c r="P835" t="n">
-        <v>4788096558</v>
+        <v>7205699568</v>
       </c>
     </row>
     <row r="836">
@@ -40127,7 +40127,7 @@
         </is>
       </c>
       <c r="P836" t="n">
-        <v>5428849692</v>
+        <v>5113460076</v>
       </c>
     </row>
     <row r="837">
@@ -40175,7 +40175,7 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>4809119470</v>
+        <v>8271825739</v>
       </c>
     </row>
     <row r="838">
@@ -40223,7 +40223,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>252581177</v>
+        <v>444483752</v>
       </c>
     </row>
     <row r="839">
@@ -40271,7 +40271,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>1870770208</v>
+        <v>9790093218</v>
       </c>
     </row>
     <row r="840">
@@ -40319,7 +40319,7 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>3494940196</v>
+        <v>2188293552</v>
       </c>
     </row>
     <row r="841">
@@ -40367,7 +40367,7 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>5507640557</v>
+        <v>7321305483</v>
       </c>
     </row>
     <row r="842">
@@ -40415,7 +40415,7 @@
         </is>
       </c>
       <c r="P842" t="n">
-        <v>5241605341</v>
+        <v>564589409</v>
       </c>
     </row>
     <row r="843">
@@ -40459,7 +40459,7 @@
         </is>
       </c>
       <c r="P843" t="n">
-        <v>5088143656</v>
+        <v>7893716997</v>
       </c>
     </row>
     <row r="844">
@@ -40507,7 +40507,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>5013310576</v>
+        <v>7770628253</v>
       </c>
     </row>
     <row r="845">
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>5223037234</v>
+        <v>3163401441</v>
       </c>
     </row>
     <row r="846">
@@ -40601,7 +40601,7 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>1358836432</v>
+        <v>8701683790</v>
       </c>
     </row>
     <row r="847">
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="P847" t="n">
-        <v>5534480236</v>
+        <v>4422958572</v>
       </c>
     </row>
     <row r="848">
@@ -40695,7 +40695,7 @@
         </is>
       </c>
       <c r="P848" t="n">
-        <v>1782791702</v>
+        <v>6205261945</v>
       </c>
     </row>
     <row r="849">
@@ -40743,7 +40743,7 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>5906335739</v>
+        <v>7438387694</v>
       </c>
     </row>
     <row r="850">
@@ -40791,7 +40791,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>8533657580</v>
+        <v>1003478109</v>
       </c>
     </row>
     <row r="851">
@@ -40839,7 +40839,7 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>19350057</v>
+        <v>8706817897</v>
       </c>
     </row>
     <row r="852">
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>1408173172</v>
+        <v>3723912381</v>
       </c>
     </row>
     <row r="853">
@@ -40935,7 +40935,7 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>9362197142</v>
+        <v>3279308187</v>
       </c>
     </row>
     <row r="854">
@@ -40983,7 +40983,7 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>6968916786</v>
+        <v>1810711084</v>
       </c>
     </row>
     <row r="855">
@@ -41031,7 +41031,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>1349285331</v>
+        <v>6830142680</v>
       </c>
     </row>
     <row r="856">
@@ -41079,7 +41079,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>4023967763</v>
+        <v>3241667801</v>
       </c>
     </row>
     <row r="857">
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>2352843730</v>
+        <v>2139302612</v>
       </c>
     </row>
     <row r="858">
@@ -41175,7 +41175,7 @@
         </is>
       </c>
       <c r="P858" t="n">
-        <v>6118454589</v>
+        <v>4433561214</v>
       </c>
     </row>
     <row r="859">
@@ -41223,7 +41223,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>7210623574</v>
+        <v>375793858</v>
       </c>
     </row>
     <row r="860">
@@ -41271,7 +41271,7 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>3158724197</v>
+        <v>7596463745</v>
       </c>
     </row>
     <row r="861">
@@ -41319,7 +41319,7 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>2920942018</v>
+        <v>5747171325</v>
       </c>
     </row>
     <row r="862">
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>8114556273</v>
+        <v>7379779476</v>
       </c>
     </row>
     <row r="863">
@@ -41415,7 +41415,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>8748138268</v>
+        <v>4356427012</v>
       </c>
     </row>
     <row r="864">
@@ -41463,7 +41463,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>6243429324</v>
+        <v>290839804</v>
       </c>
     </row>
     <row r="865">
@@ -41511,7 +41511,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>6367821034</v>
+        <v>873389466</v>
       </c>
     </row>
     <row r="866">
@@ -41559,7 +41559,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>9312936781</v>
+        <v>1626625711</v>
       </c>
     </row>
     <row r="867">
@@ -41597,7 +41597,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>7418480696</v>
+        <v>7249902107</v>
       </c>
     </row>
   </sheetData>
